--- a/data/t2m_classification.xlsx
+++ b/data/t2m_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\t2m_folder\py_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C8820-FAF5-4647-B1B0-08C717AF4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21992D63-61E8-46A5-8A53-EE10256A1BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2385" windowWidth="19710" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_stock_list" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7866" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7868" uniqueCount="1839">
   <si>
     <t>stock</t>
   </si>
@@ -5557,6 +5557,12 @@
   </si>
   <si>
     <t>industry_name</t>
+  </si>
+  <si>
+    <t>all_stock</t>
+  </si>
+  <si>
+    <t>Thị trường</t>
   </si>
 </sst>
 </file>
@@ -6401,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H516"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -21576,10 +21582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BBB8EC-206D-4F61-95EB-11956B25152E}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21947,6 +21953,14 @@
       </c>
       <c r="C36">
         <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1838</v>
       </c>
     </row>
   </sheetData>

--- a/data/t2m_classification.xlsx
+++ b/data/t2m_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa6df288256b873d/t2m/py_code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{21992D63-61E8-46A5-8A53-EE10256A1BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA48A55-D666-4429-80A8-3A09580736E6}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{21992D63-61E8-46A5-8A53-EE10256A1BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80807420-8159-4A99-88B0-4E66A5701D02}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2385" windowWidth="19710" windowHeight="9210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_stock_list" sheetId="1" r:id="rId1"/>
@@ -6078,10 +6078,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6381,8 +6377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H516"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C508" sqref="C508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,7 +6431,7 @@
         <v>1084</v>
       </c>
       <c r="E2" t="str">
-        <f>VLOOKUP(D2,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D2,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F2" t="s">
@@ -6445,7 +6441,7 @@
         <v>1822</v>
       </c>
       <c r="H2" t="str">
-        <f>VLOOKUP(D2,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D2,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -6463,7 +6459,7 @@
         <v>1628</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(D3,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D3,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F3" t="s">
@@ -6473,7 +6469,7 @@
         <v>1804</v>
       </c>
       <c r="H3" t="str">
-        <f>VLOOKUP(D3,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D3,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -6491,7 +6487,7 @@
         <v>804</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(D4,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D4,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F4" t="s">
@@ -6500,9 +6496,9 @@
       <c r="G4" t="s">
         <v>1804</v>
       </c>
-      <c r="H4" t="str">
-        <f>VLOOKUP(D4,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H4" t="e">
+        <f>VLOOKUP(D4,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6519,7 +6515,7 @@
         <v>552</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(D5,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D5,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F5" t="s">
@@ -6528,9 +6524,9 @@
       <c r="G5" t="s">
         <v>1822</v>
       </c>
-      <c r="H5" t="str">
-        <f>VLOOKUP(D5,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H5" t="e">
+        <f>VLOOKUP(D5,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6547,7 +6543,7 @@
         <v>599</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(D6,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D6,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F6" t="s">
@@ -6557,7 +6553,7 @@
         <v>1804</v>
       </c>
       <c r="H6" t="str">
-        <f>VLOOKUP(D6,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D6,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -6575,7 +6571,7 @@
         <v>594</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(D7,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D7,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F7" t="s">
@@ -6585,7 +6581,7 @@
         <v>1822</v>
       </c>
       <c r="H7" t="str">
-        <f>VLOOKUP(D7,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D7,name_map!$A$4:$C$24,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
     </row>
@@ -6603,7 +6599,7 @@
         <v>1084</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(D8,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D8,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F8" t="s">
@@ -6613,7 +6609,7 @@
         <v>1804</v>
       </c>
       <c r="H8" t="str">
-        <f>VLOOKUP(D8,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D8,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -6631,7 +6627,7 @@
         <v>1628</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(D9,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D9,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F9" t="s">
@@ -6641,7 +6637,7 @@
         <v>1804</v>
       </c>
       <c r="H9" t="str">
-        <f>VLOOKUP(D9,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D9,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -6659,7 +6655,7 @@
         <v>599</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(D10,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D10,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F10" t="s">
@@ -6669,7 +6665,7 @@
         <v>1804</v>
       </c>
       <c r="H10" t="str">
-        <f>VLOOKUP(D10,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D10,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -6687,7 +6683,7 @@
         <v>1630</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(D11,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D11,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F11" t="s">
@@ -6697,7 +6693,7 @@
         <v>1804</v>
       </c>
       <c r="H11" t="str">
-        <f>VLOOKUP(D11,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D11,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -6715,7 +6711,7 @@
         <v>880</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(D12,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D12,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F12" t="s">
@@ -6725,7 +6721,7 @@
         <v>1804</v>
       </c>
       <c r="H12" t="str">
-        <f>VLOOKUP(D12,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D12,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -6743,7 +6739,7 @@
         <v>1631</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(D13,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D13,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F13" t="s">
@@ -6753,7 +6749,7 @@
         <v>1804</v>
       </c>
       <c r="H13" t="str">
-        <f>VLOOKUP(D13,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D13,name_map!$A$4:$C$24,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
     </row>
@@ -6771,7 +6767,7 @@
         <v>1423</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(D14,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D14,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F14" t="s">
@@ -6781,7 +6777,7 @@
         <v>1804</v>
       </c>
       <c r="H14" t="str">
-        <f>VLOOKUP(D14,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D14,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -6799,7 +6795,7 @@
         <v>1731</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(D15,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D15,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F15" t="s">
@@ -6809,7 +6805,7 @@
         <v>1804</v>
       </c>
       <c r="H15" t="str">
-        <f>VLOOKUP(D15,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D15,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -6827,7 +6823,7 @@
         <v>1724</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(D16,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D16,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F16" t="s">
@@ -6837,7 +6833,7 @@
         <v>1804</v>
       </c>
       <c r="H16" t="str">
-        <f>VLOOKUP(D16,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D16,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -6855,7 +6851,7 @@
         <v>942</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(D17,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D17,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F17" t="s">
@@ -6865,7 +6861,7 @@
         <v>1804</v>
       </c>
       <c r="H17" t="str">
-        <f>VLOOKUP(D17,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D17,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -6883,7 +6879,7 @@
         <v>552</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(D18,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D18,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F18" t="s">
@@ -6892,9 +6888,9 @@
       <c r="G18" t="s">
         <v>1804</v>
       </c>
-      <c r="H18" t="str">
-        <f>VLOOKUP(D18,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H18" t="e">
+        <f>VLOOKUP(D18,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6911,7 +6907,7 @@
         <v>942</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(D19,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D19,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F19" t="s">
@@ -6921,7 +6917,7 @@
         <v>1804</v>
       </c>
       <c r="H19" t="str">
-        <f>VLOOKUP(D19,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D19,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -6939,7 +6935,7 @@
         <v>1628</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(D20,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D20,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F20" t="s">
@@ -6949,7 +6945,7 @@
         <v>1822</v>
       </c>
       <c r="H20" t="str">
-        <f>VLOOKUP(D20,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D20,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -6967,7 +6963,7 @@
         <v>1187</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(D21,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D21,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F21" t="s">
@@ -6977,7 +6973,7 @@
         <v>1804</v>
       </c>
       <c r="H21" t="str">
-        <f>VLOOKUP(D21,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D21,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -6995,7 +6991,7 @@
         <v>832</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(D22,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D22,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F22" t="s">
@@ -7005,7 +7001,7 @@
         <v>1804</v>
       </c>
       <c r="H22" t="str">
-        <f>VLOOKUP(D22,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D22,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -7023,7 +7019,7 @@
         <v>1631</v>
       </c>
       <c r="E23" t="str">
-        <f>VLOOKUP(D23,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D23,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F23" t="s">
@@ -7033,7 +7029,7 @@
         <v>1822</v>
       </c>
       <c r="H23" t="str">
-        <f>VLOOKUP(D23,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D23,name_map!$A$4:$C$24,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
     </row>
@@ -7051,7 +7047,7 @@
         <v>1084</v>
       </c>
       <c r="E24" t="str">
-        <f>VLOOKUP(D24,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D24,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F24" t="s">
@@ -7061,7 +7057,7 @@
         <v>1804</v>
       </c>
       <c r="H24" t="str">
-        <f>VLOOKUP(D24,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D24,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -7079,7 +7075,7 @@
         <v>1628</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(D25,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D25,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F25" t="s">
@@ -7089,7 +7085,7 @@
         <v>1804</v>
       </c>
       <c r="H25" t="str">
-        <f>VLOOKUP(D25,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D25,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -7107,7 +7103,7 @@
         <v>1084</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(D26,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D26,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F26" t="s">
@@ -7117,7 +7113,7 @@
         <v>1804</v>
       </c>
       <c r="H26" t="str">
-        <f>VLOOKUP(D26,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D26,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -7135,7 +7131,7 @@
         <v>552</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(D27,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D27,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F27" t="s">
@@ -7144,9 +7140,9 @@
       <c r="G27" t="s">
         <v>1804</v>
       </c>
-      <c r="H27" t="str">
-        <f>VLOOKUP(D27,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H27" t="e">
+        <f>VLOOKUP(D27,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -7163,7 +7159,7 @@
         <v>1628</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(D28,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D28,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F28" t="s">
@@ -7173,7 +7169,7 @@
         <v>1804</v>
       </c>
       <c r="H28" t="str">
-        <f>VLOOKUP(D28,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D28,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -7191,7 +7187,7 @@
         <v>552</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(D29,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D29,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F29" t="s">
@@ -7200,9 +7196,9 @@
       <c r="G29" t="s">
         <v>1804</v>
       </c>
-      <c r="H29" t="str">
-        <f>VLOOKUP(D29,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H29" t="e">
+        <f>VLOOKUP(D29,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -7219,7 +7215,7 @@
         <v>601</v>
       </c>
       <c r="E30" t="str">
-        <f>VLOOKUP(D30,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D30,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F30" t="s">
@@ -7229,7 +7225,7 @@
         <v>1804</v>
       </c>
       <c r="H30" t="str">
-        <f>VLOOKUP(D30,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D30,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -7247,7 +7243,7 @@
         <v>599</v>
       </c>
       <c r="E31" t="str">
-        <f>VLOOKUP(D31,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D31,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F31" t="s">
@@ -7257,7 +7253,7 @@
         <v>1804</v>
       </c>
       <c r="H31" t="str">
-        <f>VLOOKUP(D31,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D31,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -7275,7 +7271,7 @@
         <v>942</v>
       </c>
       <c r="E32" t="str">
-        <f>VLOOKUP(D32,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D32,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F32" t="s">
@@ -7285,7 +7281,7 @@
         <v>1804</v>
       </c>
       <c r="H32" t="str">
-        <f>VLOOKUP(D32,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D32,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -7303,7 +7299,7 @@
         <v>1633</v>
       </c>
       <c r="E33" t="str">
-        <f>VLOOKUP(D33,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D33,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F33" t="s">
@@ -7313,7 +7309,7 @@
         <v>1804</v>
       </c>
       <c r="H33" t="str">
-        <f>VLOOKUP(D33,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D33,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -7331,7 +7327,7 @@
         <v>1630</v>
       </c>
       <c r="E34" t="str">
-        <f>VLOOKUP(D34,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D34,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F34" t="s">
@@ -7341,7 +7337,7 @@
         <v>1822</v>
       </c>
       <c r="H34" t="str">
-        <f>VLOOKUP(D34,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D34,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -7359,7 +7355,7 @@
         <v>1187</v>
       </c>
       <c r="E35" t="str">
-        <f>VLOOKUP(D35,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D35,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F35" t="s">
@@ -7369,7 +7365,7 @@
         <v>1804</v>
       </c>
       <c r="H35" t="str">
-        <f>VLOOKUP(D35,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D35,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -7387,7 +7383,7 @@
         <v>1629</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(D36,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D36,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F36" t="s">
@@ -7397,7 +7393,7 @@
         <v>1804</v>
       </c>
       <c r="H36" t="str">
-        <f>VLOOKUP(D36,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D36,name_map!$A$4:$C$24,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
     </row>
@@ -7415,7 +7411,7 @@
         <v>1632</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(D37,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D37,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F37" t="s">
@@ -7425,7 +7421,7 @@
         <v>1804</v>
       </c>
       <c r="H37" t="str">
-        <f>VLOOKUP(D37,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D37,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -7443,7 +7439,7 @@
         <v>1084</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(D38,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D38,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F38" t="s">
@@ -7453,7 +7449,7 @@
         <v>1822</v>
       </c>
       <c r="H38" t="str">
-        <f>VLOOKUP(D38,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D38,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -7471,7 +7467,7 @@
         <v>594</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(D39,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D39,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F39" t="s">
@@ -7481,7 +7477,7 @@
         <v>1804</v>
       </c>
       <c r="H39" t="str">
-        <f>VLOOKUP(D39,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D39,name_map!$A$4:$C$24,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
     </row>
@@ -7499,7 +7495,7 @@
         <v>599</v>
       </c>
       <c r="E40" t="str">
-        <f>VLOOKUP(D40,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D40,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F40" t="s">
@@ -7509,7 +7505,7 @@
         <v>1804</v>
       </c>
       <c r="H40" t="str">
-        <f>VLOOKUP(D40,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D40,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -7527,7 +7523,7 @@
         <v>1187</v>
       </c>
       <c r="E41" t="str">
-        <f>VLOOKUP(D41,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D41,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F41" t="s">
@@ -7537,7 +7533,7 @@
         <v>1804</v>
       </c>
       <c r="H41" t="str">
-        <f>VLOOKUP(D41,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D41,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -7555,7 +7551,7 @@
         <v>1633</v>
       </c>
       <c r="E42" t="str">
-        <f>VLOOKUP(D42,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D42,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F42" t="s">
@@ -7565,7 +7561,7 @@
         <v>1804</v>
       </c>
       <c r="H42" t="str">
-        <f>VLOOKUP(D42,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D42,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -7583,7 +7579,7 @@
         <v>1633</v>
       </c>
       <c r="E43" t="str">
-        <f>VLOOKUP(D43,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D43,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F43" t="s">
@@ -7593,7 +7589,7 @@
         <v>1822</v>
       </c>
       <c r="H43" t="str">
-        <f>VLOOKUP(D43,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D43,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -7611,7 +7607,7 @@
         <v>594</v>
       </c>
       <c r="E44" t="str">
-        <f>VLOOKUP(D44,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D44,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F44" t="s">
@@ -7621,7 +7617,7 @@
         <v>1822</v>
       </c>
       <c r="H44" t="str">
-        <f>VLOOKUP(D44,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D44,name_map!$A$4:$C$24,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
     </row>
@@ -7639,7 +7635,7 @@
         <v>1084</v>
       </c>
       <c r="E45" t="str">
-        <f>VLOOKUP(D45,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D45,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F45" t="s">
@@ -7649,7 +7645,7 @@
         <v>1804</v>
       </c>
       <c r="H45" t="str">
-        <f>VLOOKUP(D45,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D45,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -7667,7 +7663,7 @@
         <v>1628</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(D46,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D46,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F46" t="s">
@@ -7677,7 +7673,7 @@
         <v>1822</v>
       </c>
       <c r="H46" t="str">
-        <f>VLOOKUP(D46,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D46,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -7695,7 +7691,7 @@
         <v>942</v>
       </c>
       <c r="E47" t="str">
-        <f>VLOOKUP(D47,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D47,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F47" t="s">
@@ -7705,7 +7701,7 @@
         <v>1804</v>
       </c>
       <c r="H47" t="str">
-        <f>VLOOKUP(D47,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D47,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -7723,7 +7719,7 @@
         <v>1187</v>
       </c>
       <c r="E48" t="str">
-        <f>VLOOKUP(D48,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D48,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F48" t="s">
@@ -7733,7 +7729,7 @@
         <v>1804</v>
       </c>
       <c r="H48" t="str">
-        <f>VLOOKUP(D48,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D48,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -7751,7 +7747,7 @@
         <v>1628</v>
       </c>
       <c r="E49" t="str">
-        <f>VLOOKUP(D49,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D49,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F49" t="s">
@@ -7761,7 +7757,7 @@
         <v>1804</v>
       </c>
       <c r="H49" t="str">
-        <f>VLOOKUP(D49,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D49,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -7779,7 +7775,7 @@
         <v>1073</v>
       </c>
       <c r="E50" t="str">
-        <f>VLOOKUP(D50,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D50,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F50" t="s">
@@ -7789,7 +7785,7 @@
         <v>1822</v>
       </c>
       <c r="H50" t="str">
-        <f>VLOOKUP(D50,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D50,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -7807,7 +7803,7 @@
         <v>1630</v>
       </c>
       <c r="E51" t="str">
-        <f>VLOOKUP(D51,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D51,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F51" t="s">
@@ -7817,7 +7813,7 @@
         <v>1804</v>
       </c>
       <c r="H51" t="str">
-        <f>VLOOKUP(D51,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D51,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -7835,7 +7831,7 @@
         <v>1630</v>
       </c>
       <c r="E52" t="str">
-        <f>VLOOKUP(D52,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D52,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F52" t="s">
@@ -7845,7 +7841,7 @@
         <v>1804</v>
       </c>
       <c r="H52" t="str">
-        <f>VLOOKUP(D52,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D52,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -7863,7 +7859,7 @@
         <v>599</v>
       </c>
       <c r="E53" t="str">
-        <f>VLOOKUP(D53,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D53,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F53" t="s">
@@ -7873,7 +7869,7 @@
         <v>1804</v>
       </c>
       <c r="H53" t="str">
-        <f>VLOOKUP(D53,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D53,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -7891,7 +7887,7 @@
         <v>1727</v>
       </c>
       <c r="E54" t="str">
-        <f>VLOOKUP(D54,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D54,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F54" t="s">
@@ -7901,7 +7897,7 @@
         <v>1822</v>
       </c>
       <c r="H54" t="str">
-        <f>VLOOKUP(D54,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D54,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -7919,7 +7915,7 @@
         <v>594</v>
       </c>
       <c r="E55" t="str">
-        <f>VLOOKUP(D55,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D55,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F55" t="s">
@@ -7929,7 +7925,7 @@
         <v>1804</v>
       </c>
       <c r="H55" t="str">
-        <f>VLOOKUP(D55,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D55,name_map!$A$4:$C$24,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
     </row>
@@ -7947,7 +7943,7 @@
         <v>1628</v>
       </c>
       <c r="E56" t="str">
-        <f>VLOOKUP(D56,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D56,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F56" t="s">
@@ -7957,7 +7953,7 @@
         <v>1822</v>
       </c>
       <c r="H56" t="str">
-        <f>VLOOKUP(D56,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D56,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -7975,7 +7971,7 @@
         <v>601</v>
       </c>
       <c r="E57" t="str">
-        <f>VLOOKUP(D57,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D57,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F57" t="s">
@@ -7985,7 +7981,7 @@
         <v>1804</v>
       </c>
       <c r="H57" t="str">
-        <f>VLOOKUP(D57,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D57,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -8003,7 +7999,7 @@
         <v>1630</v>
       </c>
       <c r="E58" t="str">
-        <f>VLOOKUP(D58,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D58,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F58" t="s">
@@ -8013,7 +8009,7 @@
         <v>1804</v>
       </c>
       <c r="H58" t="str">
-        <f>VLOOKUP(D58,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D58,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -8031,7 +8027,7 @@
         <v>1187</v>
       </c>
       <c r="E59" t="str">
-        <f>VLOOKUP(D59,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D59,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F59" t="s">
@@ -8041,7 +8037,7 @@
         <v>1804</v>
       </c>
       <c r="H59" t="str">
-        <f>VLOOKUP(D59,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D59,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8059,7 +8055,7 @@
         <v>1187</v>
       </c>
       <c r="E60" t="str">
-        <f>VLOOKUP(D60,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D60,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F60" t="s">
@@ -8069,7 +8065,7 @@
         <v>1822</v>
       </c>
       <c r="H60" t="str">
-        <f>VLOOKUP(D60,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D60,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8087,7 +8083,7 @@
         <v>1630</v>
       </c>
       <c r="E61" t="str">
-        <f>VLOOKUP(D61,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D61,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F61" t="s">
@@ -8097,7 +8093,7 @@
         <v>1804</v>
       </c>
       <c r="H61" t="str">
-        <f>VLOOKUP(D61,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D61,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -8115,7 +8111,7 @@
         <v>1726</v>
       </c>
       <c r="E62" t="str">
-        <f>VLOOKUP(D62,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D62,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F62" t="s">
@@ -8125,7 +8121,7 @@
         <v>1804</v>
       </c>
       <c r="H62" t="str">
-        <f>VLOOKUP(D62,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D62,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -8143,7 +8139,7 @@
         <v>1632</v>
       </c>
       <c r="E63" t="str">
-        <f>VLOOKUP(D63,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D63,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F63" t="s">
@@ -8153,7 +8149,7 @@
         <v>1822</v>
       </c>
       <c r="H63" t="str">
-        <f>VLOOKUP(D63,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D63,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -8171,7 +8167,7 @@
         <v>1187</v>
       </c>
       <c r="E64" t="str">
-        <f>VLOOKUP(D64,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D64,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F64" t="s">
@@ -8181,7 +8177,7 @@
         <v>1804</v>
       </c>
       <c r="H64" t="str">
-        <f>VLOOKUP(D64,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D64,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8199,7 +8195,7 @@
         <v>1187</v>
       </c>
       <c r="E65" t="str">
-        <f>VLOOKUP(D65,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D65,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F65" t="s">
@@ -8209,7 +8205,7 @@
         <v>1822</v>
       </c>
       <c r="H65" t="str">
-        <f>VLOOKUP(D65,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D65,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8227,7 +8223,7 @@
         <v>804</v>
       </c>
       <c r="E66" t="str">
-        <f>VLOOKUP(D66,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D66,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F66" t="s">
@@ -8236,9 +8232,9 @@
       <c r="G66" t="s">
         <v>1822</v>
       </c>
-      <c r="H66" t="str">
-        <f>VLOOKUP(D66,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H66" t="e">
+        <f>VLOOKUP(D66,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -8255,7 +8251,7 @@
         <v>552</v>
       </c>
       <c r="E67" t="str">
-        <f>VLOOKUP(D67,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D67,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F67" t="s">
@@ -8264,9 +8260,9 @@
       <c r="G67" t="s">
         <v>1804</v>
       </c>
-      <c r="H67" t="str">
-        <f>VLOOKUP(D67,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H67" t="e">
+        <f>VLOOKUP(D67,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -8283,7 +8279,7 @@
         <v>552</v>
       </c>
       <c r="E68" t="str">
-        <f>VLOOKUP(D68,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D68,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F68" t="s">
@@ -8292,9 +8288,9 @@
       <c r="G68" t="s">
         <v>1804</v>
       </c>
-      <c r="H68" t="str">
-        <f>VLOOKUP(D68,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H68" t="e">
+        <f>VLOOKUP(D68,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -8311,7 +8307,7 @@
         <v>1187</v>
       </c>
       <c r="E69" t="str">
-        <f>VLOOKUP(D69,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D69,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F69" t="s">
@@ -8321,7 +8317,7 @@
         <v>1804</v>
       </c>
       <c r="H69" t="str">
-        <f>VLOOKUP(D69,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D69,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8339,7 +8335,7 @@
         <v>552</v>
       </c>
       <c r="E70" t="str">
-        <f>VLOOKUP(D70,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D70,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F70" t="s">
@@ -8348,9 +8344,9 @@
       <c r="G70" t="s">
         <v>1804</v>
       </c>
-      <c r="H70" t="str">
-        <f>VLOOKUP(D70,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H70" t="e">
+        <f>VLOOKUP(D70,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -8367,7 +8363,7 @@
         <v>804</v>
       </c>
       <c r="E71" t="str">
-        <f>VLOOKUP(D71,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D71,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F71" t="s">
@@ -8376,9 +8372,9 @@
       <c r="G71" t="s">
         <v>1804</v>
       </c>
-      <c r="H71" t="str">
-        <f>VLOOKUP(D71,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H71" t="e">
+        <f>VLOOKUP(D71,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -8395,7 +8391,7 @@
         <v>524</v>
       </c>
       <c r="E72" t="str">
-        <f>VLOOKUP(D72,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D72,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F72" t="s">
@@ -8405,7 +8401,7 @@
         <v>1804</v>
       </c>
       <c r="H72" t="str">
-        <f>VLOOKUP(D72,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D72,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -8423,7 +8419,7 @@
         <v>1187</v>
       </c>
       <c r="E73" t="str">
-        <f>VLOOKUP(D73,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D73,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F73" t="s">
@@ -8433,7 +8429,7 @@
         <v>1804</v>
       </c>
       <c r="H73" t="str">
-        <f>VLOOKUP(D73,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D73,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8451,7 +8447,7 @@
         <v>1631</v>
       </c>
       <c r="E74" t="str">
-        <f>VLOOKUP(D74,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D74,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F74" t="s">
@@ -8461,7 +8457,7 @@
         <v>1804</v>
       </c>
       <c r="H74" t="str">
-        <f>VLOOKUP(D74,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D74,name_map!$A$4:$C$24,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
     </row>
@@ -8479,7 +8475,7 @@
         <v>601</v>
       </c>
       <c r="E75" t="str">
-        <f>VLOOKUP(D75,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D75,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F75" t="s">
@@ -8489,7 +8485,7 @@
         <v>1804</v>
       </c>
       <c r="H75" t="str">
-        <f>VLOOKUP(D75,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D75,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -8507,7 +8503,7 @@
         <v>1630</v>
       </c>
       <c r="E76" t="str">
-        <f>VLOOKUP(D76,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D76,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F76" t="s">
@@ -8517,7 +8513,7 @@
         <v>1804</v>
       </c>
       <c r="H76" t="str">
-        <f>VLOOKUP(D76,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D76,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -8535,7 +8531,7 @@
         <v>552</v>
       </c>
       <c r="E77" t="str">
-        <f>VLOOKUP(D77,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D77,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F77" t="s">
@@ -8544,9 +8540,9 @@
       <c r="G77" t="s">
         <v>1822</v>
       </c>
-      <c r="H77" t="str">
-        <f>VLOOKUP(D77,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H77" t="e">
+        <f>VLOOKUP(D77,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -8563,7 +8559,7 @@
         <v>552</v>
       </c>
       <c r="E78" t="str">
-        <f>VLOOKUP(D78,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D78,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F78" t="s">
@@ -8572,9 +8568,9 @@
       <c r="G78" t="s">
         <v>1804</v>
       </c>
-      <c r="H78" t="str">
-        <f>VLOOKUP(D78,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H78" t="e">
+        <f>VLOOKUP(D78,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -8591,7 +8587,7 @@
         <v>1628</v>
       </c>
       <c r="E79" t="str">
-        <f>VLOOKUP(D79,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D79,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F79" t="s">
@@ -8601,7 +8597,7 @@
         <v>1804</v>
       </c>
       <c r="H79" t="str">
-        <f>VLOOKUP(D79,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D79,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -8619,7 +8615,7 @@
         <v>1084</v>
       </c>
       <c r="E80" t="str">
-        <f>VLOOKUP(D80,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D80,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F80" t="s">
@@ -8629,7 +8625,7 @@
         <v>1804</v>
       </c>
       <c r="H80" t="str">
-        <f>VLOOKUP(D80,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D80,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -8647,7 +8643,7 @@
         <v>1633</v>
       </c>
       <c r="E81" t="str">
-        <f>VLOOKUP(D81,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D81,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F81" t="s">
@@ -8657,7 +8653,7 @@
         <v>1804</v>
       </c>
       <c r="H81" t="str">
-        <f>VLOOKUP(D81,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D81,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -8675,7 +8671,7 @@
         <v>1084</v>
       </c>
       <c r="E82" t="str">
-        <f>VLOOKUP(D82,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D82,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F82" t="s">
@@ -8685,7 +8681,7 @@
         <v>1804</v>
       </c>
       <c r="H82" t="str">
-        <f>VLOOKUP(D82,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D82,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -8703,7 +8699,7 @@
         <v>1731</v>
       </c>
       <c r="E83" t="str">
-        <f>VLOOKUP(D83,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D83,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F83" t="s">
@@ -8713,7 +8709,7 @@
         <v>1804</v>
       </c>
       <c r="H83" t="str">
-        <f>VLOOKUP(D83,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D83,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -8731,7 +8727,7 @@
         <v>1187</v>
       </c>
       <c r="E84" t="str">
-        <f>VLOOKUP(D84,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D84,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F84" t="s">
@@ -8741,7 +8737,7 @@
         <v>1804</v>
       </c>
       <c r="H84" t="str">
-        <f>VLOOKUP(D84,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D84,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8759,7 +8755,7 @@
         <v>880</v>
       </c>
       <c r="E85" t="str">
-        <f>VLOOKUP(D85,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D85,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F85" t="s">
@@ -8769,7 +8765,7 @@
         <v>1804</v>
       </c>
       <c r="H85" t="str">
-        <f>VLOOKUP(D85,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D85,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -8787,7 +8783,7 @@
         <v>599</v>
       </c>
       <c r="E86" t="str">
-        <f>VLOOKUP(D86,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D86,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F86" t="s">
@@ -8797,7 +8793,7 @@
         <v>1804</v>
       </c>
       <c r="H86" t="str">
-        <f>VLOOKUP(D86,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D86,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -8815,7 +8811,7 @@
         <v>1187</v>
       </c>
       <c r="E87" t="str">
-        <f>VLOOKUP(D87,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D87,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F87" t="s">
@@ -8825,7 +8821,7 @@
         <v>1804</v>
       </c>
       <c r="H87" t="str">
-        <f>VLOOKUP(D87,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D87,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8843,7 +8839,7 @@
         <v>1187</v>
       </c>
       <c r="E88" t="str">
-        <f>VLOOKUP(D88,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D88,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F88" t="s">
@@ -8853,7 +8849,7 @@
         <v>1804</v>
       </c>
       <c r="H88" t="str">
-        <f>VLOOKUP(D88,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D88,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8871,7 +8867,7 @@
         <v>1628</v>
       </c>
       <c r="E89" t="str">
-        <f>VLOOKUP(D89,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D89,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F89" t="s">
@@ -8881,7 +8877,7 @@
         <v>1822</v>
       </c>
       <c r="H89" t="str">
-        <f>VLOOKUP(D89,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D89,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -8899,7 +8895,7 @@
         <v>1187</v>
       </c>
       <c r="E90" t="str">
-        <f>VLOOKUP(D90,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D90,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F90" t="s">
@@ -8909,7 +8905,7 @@
         <v>1804</v>
       </c>
       <c r="H90" t="str">
-        <f>VLOOKUP(D90,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D90,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -8927,7 +8923,7 @@
         <v>552</v>
       </c>
       <c r="E91" t="str">
-        <f>VLOOKUP(D91,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D91,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F91" t="s">
@@ -8936,9 +8932,9 @@
       <c r="G91" t="s">
         <v>1804</v>
       </c>
-      <c r="H91" t="str">
-        <f>VLOOKUP(D91,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H91" t="e">
+        <f>VLOOKUP(D91,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -8955,7 +8951,7 @@
         <v>1632</v>
       </c>
       <c r="E92" t="str">
-        <f>VLOOKUP(D92,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D92,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F92" t="s">
@@ -8965,7 +8961,7 @@
         <v>1804</v>
       </c>
       <c r="H92" t="str">
-        <f>VLOOKUP(D92,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D92,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -8983,7 +8979,7 @@
         <v>1084</v>
       </c>
       <c r="E93" t="str">
-        <f>VLOOKUP(D93,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D93,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F93" t="s">
@@ -8993,7 +8989,7 @@
         <v>1804</v>
       </c>
       <c r="H93" t="str">
-        <f>VLOOKUP(D93,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D93,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -9011,7 +9007,7 @@
         <v>1731</v>
       </c>
       <c r="E94" t="str">
-        <f>VLOOKUP(D94,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D94,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F94" t="s">
@@ -9021,7 +9017,7 @@
         <v>1804</v>
       </c>
       <c r="H94" t="str">
-        <f>VLOOKUP(D94,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D94,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -9039,7 +9035,7 @@
         <v>942</v>
       </c>
       <c r="E95" t="str">
-        <f>VLOOKUP(D95,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D95,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F95" t="s">
@@ -9049,7 +9045,7 @@
         <v>1804</v>
       </c>
       <c r="H95" t="str">
-        <f>VLOOKUP(D95,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D95,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -9067,7 +9063,7 @@
         <v>832</v>
       </c>
       <c r="E96" t="str">
-        <f>VLOOKUP(D96,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D96,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F96" t="s">
@@ -9077,7 +9073,7 @@
         <v>1804</v>
       </c>
       <c r="H96" t="str">
-        <f>VLOOKUP(D96,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D96,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -9095,7 +9091,7 @@
         <v>832</v>
       </c>
       <c r="E97" t="str">
-        <f>VLOOKUP(D97,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D97,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F97" t="s">
@@ -9105,7 +9101,7 @@
         <v>1804</v>
       </c>
       <c r="H97" t="str">
-        <f>VLOOKUP(D97,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D97,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -9123,7 +9119,7 @@
         <v>1187</v>
       </c>
       <c r="E98" t="str">
-        <f>VLOOKUP(D98,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D98,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F98" t="s">
@@ -9133,7 +9129,7 @@
         <v>1804</v>
       </c>
       <c r="H98" t="str">
-        <f>VLOOKUP(D98,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D98,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -9151,7 +9147,7 @@
         <v>832</v>
       </c>
       <c r="E99" t="str">
-        <f>VLOOKUP(D99,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D99,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F99" t="s">
@@ -9161,7 +9157,7 @@
         <v>1804</v>
       </c>
       <c r="H99" t="str">
-        <f>VLOOKUP(D99,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D99,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -9179,7 +9175,7 @@
         <v>1084</v>
       </c>
       <c r="E100" t="str">
-        <f>VLOOKUP(D100,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D100,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F100" t="s">
@@ -9189,7 +9185,7 @@
         <v>1822</v>
       </c>
       <c r="H100" t="str">
-        <f>VLOOKUP(D100,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D100,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -9207,7 +9203,7 @@
         <v>1423</v>
       </c>
       <c r="E101" t="str">
-        <f>VLOOKUP(D101,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D101,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F101" t="s">
@@ -9217,7 +9213,7 @@
         <v>1804</v>
       </c>
       <c r="H101" t="str">
-        <f>VLOOKUP(D101,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D101,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -9235,7 +9231,7 @@
         <v>1084</v>
       </c>
       <c r="E102" t="str">
-        <f>VLOOKUP(D102,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D102,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F102" t="s">
@@ -9245,7 +9241,7 @@
         <v>1804</v>
       </c>
       <c r="H102" t="str">
-        <f>VLOOKUP(D102,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D102,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -9263,7 +9259,7 @@
         <v>1084</v>
       </c>
       <c r="E103" t="str">
-        <f>VLOOKUP(D103,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D103,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F103" t="s">
@@ -9273,7 +9269,7 @@
         <v>1822</v>
       </c>
       <c r="H103" t="str">
-        <f>VLOOKUP(D103,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D103,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -9291,7 +9287,7 @@
         <v>1187</v>
       </c>
       <c r="E104" t="str">
-        <f>VLOOKUP(D104,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D104,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F104" t="s">
@@ -9301,7 +9297,7 @@
         <v>1804</v>
       </c>
       <c r="H104" t="str">
-        <f>VLOOKUP(D104,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D104,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -9319,7 +9315,7 @@
         <v>804</v>
       </c>
       <c r="E105" t="str">
-        <f>VLOOKUP(D105,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D105,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F105" t="s">
@@ -9328,9 +9324,9 @@
       <c r="G105" t="s">
         <v>1822</v>
       </c>
-      <c r="H105" t="str">
-        <f>VLOOKUP(D105,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H105" t="e">
+        <f>VLOOKUP(D105,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -9347,7 +9343,7 @@
         <v>1630</v>
       </c>
       <c r="E106" t="str">
-        <f>VLOOKUP(D106,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D106,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F106" t="s">
@@ -9357,7 +9353,7 @@
         <v>1804</v>
       </c>
       <c r="H106" t="str">
-        <f>VLOOKUP(D106,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D106,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -9375,7 +9371,7 @@
         <v>1633</v>
       </c>
       <c r="E107" t="str">
-        <f>VLOOKUP(D107,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D107,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F107" t="s">
@@ -9385,7 +9381,7 @@
         <v>1804</v>
       </c>
       <c r="H107" t="str">
-        <f>VLOOKUP(D107,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D107,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -9403,7 +9399,7 @@
         <v>832</v>
       </c>
       <c r="E108" t="str">
-        <f>VLOOKUP(D108,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D108,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F108" t="s">
@@ -9413,7 +9409,7 @@
         <v>1804</v>
       </c>
       <c r="H108" t="str">
-        <f>VLOOKUP(D108,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D108,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -9431,7 +9427,7 @@
         <v>1633</v>
       </c>
       <c r="E109" t="str">
-        <f>VLOOKUP(D109,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D109,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F109" t="s">
@@ -9441,7 +9437,7 @@
         <v>1804</v>
       </c>
       <c r="H109" t="str">
-        <f>VLOOKUP(D109,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D109,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -9459,7 +9455,7 @@
         <v>832</v>
       </c>
       <c r="E110" t="str">
-        <f>VLOOKUP(D110,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D110,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F110" t="s">
@@ -9469,7 +9465,7 @@
         <v>1804</v>
       </c>
       <c r="H110" t="str">
-        <f>VLOOKUP(D110,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D110,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -9487,7 +9483,7 @@
         <v>1630</v>
       </c>
       <c r="E111" t="str">
-        <f>VLOOKUP(D111,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D111,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F111" t="s">
@@ -9497,7 +9493,7 @@
         <v>1822</v>
       </c>
       <c r="H111" t="str">
-        <f>VLOOKUP(D111,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D111,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -9515,7 +9511,7 @@
         <v>552</v>
       </c>
       <c r="E112" t="str">
-        <f>VLOOKUP(D112,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D112,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F112" t="s">
@@ -9524,9 +9520,9 @@
       <c r="G112" t="s">
         <v>1804</v>
       </c>
-      <c r="H112" t="str">
-        <f>VLOOKUP(D112,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H112" t="e">
+        <f>VLOOKUP(D112,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -9543,7 +9539,7 @@
         <v>1726</v>
       </c>
       <c r="E113" t="str">
-        <f>VLOOKUP(D113,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D113,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F113" t="s">
@@ -9553,7 +9549,7 @@
         <v>1804</v>
       </c>
       <c r="H113" t="str">
-        <f>VLOOKUP(D113,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D113,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -9571,7 +9567,7 @@
         <v>552</v>
       </c>
       <c r="E114" t="str">
-        <f>VLOOKUP(D114,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D114,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F114" t="s">
@@ -9580,9 +9576,9 @@
       <c r="G114" t="s">
         <v>1804</v>
       </c>
-      <c r="H114" t="str">
-        <f>VLOOKUP(D114,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H114" t="e">
+        <f>VLOOKUP(D114,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -9599,7 +9595,7 @@
         <v>1187</v>
       </c>
       <c r="E115" t="str">
-        <f>VLOOKUP(D115,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D115,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F115" t="s">
@@ -9609,7 +9605,7 @@
         <v>1804</v>
       </c>
       <c r="H115" t="str">
-        <f>VLOOKUP(D115,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D115,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -9627,7 +9623,7 @@
         <v>1187</v>
       </c>
       <c r="E116" t="str">
-        <f>VLOOKUP(D116,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D116,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F116" t="s">
@@ -9637,7 +9633,7 @@
         <v>1822</v>
       </c>
       <c r="H116" t="str">
-        <f>VLOOKUP(D116,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D116,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -9655,7 +9651,7 @@
         <v>1084</v>
       </c>
       <c r="E117" t="str">
-        <f>VLOOKUP(D117,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D117,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F117" t="s">
@@ -9665,7 +9661,7 @@
         <v>1804</v>
       </c>
       <c r="H117" t="str">
-        <f>VLOOKUP(D117,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D117,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -9683,7 +9679,7 @@
         <v>1084</v>
       </c>
       <c r="E118" t="str">
-        <f>VLOOKUP(D118,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D118,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F118" t="s">
@@ -9693,7 +9689,7 @@
         <v>1804</v>
       </c>
       <c r="H118" t="str">
-        <f>VLOOKUP(D118,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D118,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -9711,7 +9707,7 @@
         <v>880</v>
       </c>
       <c r="E119" t="str">
-        <f>VLOOKUP(D119,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D119,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F119" t="s">
@@ -9721,7 +9717,7 @@
         <v>1804</v>
       </c>
       <c r="H119" t="str">
-        <f>VLOOKUP(D119,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D119,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -9739,7 +9735,7 @@
         <v>1084</v>
       </c>
       <c r="E120" t="str">
-        <f>VLOOKUP(D120,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D120,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F120" t="s">
@@ -9749,7 +9745,7 @@
         <v>1804</v>
       </c>
       <c r="H120" t="str">
-        <f>VLOOKUP(D120,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D120,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -9767,7 +9763,7 @@
         <v>552</v>
       </c>
       <c r="E121" t="str">
-        <f>VLOOKUP(D121,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D121,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F121" t="s">
@@ -9776,9 +9772,9 @@
       <c r="G121" t="s">
         <v>1822</v>
       </c>
-      <c r="H121" t="str">
-        <f>VLOOKUP(D121,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H121" t="e">
+        <f>VLOOKUP(D121,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -9795,7 +9791,7 @@
         <v>1084</v>
       </c>
       <c r="E122" t="str">
-        <f>VLOOKUP(D122,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D122,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F122" t="s">
@@ -9805,7 +9801,7 @@
         <v>1804</v>
       </c>
       <c r="H122" t="str">
-        <f>VLOOKUP(D122,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D122,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -9823,7 +9819,7 @@
         <v>1628</v>
       </c>
       <c r="E123" t="str">
-        <f>VLOOKUP(D123,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D123,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F123" t="s">
@@ -9833,7 +9829,7 @@
         <v>1804</v>
       </c>
       <c r="H123" t="str">
-        <f>VLOOKUP(D123,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D123,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -9851,7 +9847,7 @@
         <v>1187</v>
       </c>
       <c r="E124" t="str">
-        <f>VLOOKUP(D124,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D124,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F124" t="s">
@@ -9861,7 +9857,7 @@
         <v>1804</v>
       </c>
       <c r="H124" t="str">
-        <f>VLOOKUP(D124,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D124,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -9879,7 +9875,7 @@
         <v>552</v>
       </c>
       <c r="E125" t="str">
-        <f>VLOOKUP(D125,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D125,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F125" t="s">
@@ -9888,9 +9884,9 @@
       <c r="G125" t="s">
         <v>1822</v>
       </c>
-      <c r="H125" t="str">
-        <f>VLOOKUP(D125,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H125" t="e">
+        <f>VLOOKUP(D125,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -9907,7 +9903,7 @@
         <v>1632</v>
       </c>
       <c r="E126" t="str">
-        <f>VLOOKUP(D126,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D126,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F126" t="s">
@@ -9917,7 +9913,7 @@
         <v>1822</v>
       </c>
       <c r="H126" t="str">
-        <f>VLOOKUP(D126,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D126,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -9935,7 +9931,7 @@
         <v>601</v>
       </c>
       <c r="E127" t="str">
-        <f>VLOOKUP(D127,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D127,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F127" t="s">
@@ -9945,7 +9941,7 @@
         <v>1804</v>
       </c>
       <c r="H127" t="str">
-        <f>VLOOKUP(D127,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D127,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -9963,7 +9959,7 @@
         <v>552</v>
       </c>
       <c r="E128" t="str">
-        <f>VLOOKUP(D128,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D128,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F128" t="s">
@@ -9972,9 +9968,9 @@
       <c r="G128" t="s">
         <v>1804</v>
       </c>
-      <c r="H128" t="str">
-        <f>VLOOKUP(D128,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H128" t="e">
+        <f>VLOOKUP(D128,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -9991,7 +9987,7 @@
         <v>1187</v>
       </c>
       <c r="E129" t="str">
-        <f>VLOOKUP(D129,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D129,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F129" t="s">
@@ -10001,7 +9997,7 @@
         <v>1804</v>
       </c>
       <c r="H129" t="str">
-        <f>VLOOKUP(D129,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D129,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -10019,7 +10015,7 @@
         <v>832</v>
       </c>
       <c r="E130" t="str">
-        <f>VLOOKUP(D130,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D130,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F130" t="s">
@@ -10029,7 +10025,7 @@
         <v>1804</v>
       </c>
       <c r="H130" t="str">
-        <f>VLOOKUP(D130,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D130,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -10047,7 +10043,7 @@
         <v>832</v>
       </c>
       <c r="E131" t="str">
-        <f>VLOOKUP(D131,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D131,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F131" t="s">
@@ -10057,7 +10053,7 @@
         <v>1822</v>
       </c>
       <c r="H131" t="str">
-        <f>VLOOKUP(D131,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D131,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -10075,7 +10071,7 @@
         <v>552</v>
       </c>
       <c r="E132" t="str">
-        <f>VLOOKUP(D132,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D132,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F132" t="s">
@@ -10084,9 +10080,9 @@
       <c r="G132" t="s">
         <v>1822</v>
       </c>
-      <c r="H132" t="str">
-        <f>VLOOKUP(D132,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H132" t="e">
+        <f>VLOOKUP(D132,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -10103,7 +10099,7 @@
         <v>1726</v>
       </c>
       <c r="E133" t="str">
-        <f>VLOOKUP(D133,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D133,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F133" t="s">
@@ -10113,7 +10109,7 @@
         <v>1822</v>
       </c>
       <c r="H133" t="str">
-        <f>VLOOKUP(D133,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D133,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -10131,7 +10127,7 @@
         <v>552</v>
       </c>
       <c r="E134" t="str">
-        <f>VLOOKUP(D134,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D134,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F134" t="s">
@@ -10140,9 +10136,9 @@
       <c r="G134" t="s">
         <v>1804</v>
       </c>
-      <c r="H134" t="str">
-        <f>VLOOKUP(D134,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H134" t="e">
+        <f>VLOOKUP(D134,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -10159,7 +10155,7 @@
         <v>599</v>
       </c>
       <c r="E135" t="str">
-        <f>VLOOKUP(D135,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D135,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F135" t="s">
@@ -10169,7 +10165,7 @@
         <v>1804</v>
       </c>
       <c r="H135" t="str">
-        <f>VLOOKUP(D135,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D135,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -10187,7 +10183,7 @@
         <v>552</v>
       </c>
       <c r="E136" t="str">
-        <f>VLOOKUP(D136,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D136,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F136" t="s">
@@ -10196,9 +10192,9 @@
       <c r="G136" t="s">
         <v>1822</v>
       </c>
-      <c r="H136" t="str">
-        <f>VLOOKUP(D136,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H136" t="e">
+        <f>VLOOKUP(D136,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -10215,7 +10211,7 @@
         <v>524</v>
       </c>
       <c r="E137" t="str">
-        <f>VLOOKUP(D137,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D137,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F137" t="s">
@@ -10225,7 +10221,7 @@
         <v>1822</v>
       </c>
       <c r="H137" t="str">
-        <f>VLOOKUP(D137,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D137,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -10243,7 +10239,7 @@
         <v>1724</v>
       </c>
       <c r="E138" t="str">
-        <f>VLOOKUP(D138,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D138,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F138" t="s">
@@ -10253,7 +10249,7 @@
         <v>1804</v>
       </c>
       <c r="H138" t="str">
-        <f>VLOOKUP(D138,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D138,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -10271,7 +10267,7 @@
         <v>1629</v>
       </c>
       <c r="E139" t="str">
-        <f>VLOOKUP(D139,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D139,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F139" t="s">
@@ -10281,7 +10277,7 @@
         <v>1822</v>
       </c>
       <c r="H139" t="str">
-        <f>VLOOKUP(D139,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D139,name_map!$A$4:$C$24,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
     </row>
@@ -10299,7 +10295,7 @@
         <v>1630</v>
       </c>
       <c r="E140" t="str">
-        <f>VLOOKUP(D140,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D140,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F140" t="s">
@@ -10309,7 +10305,7 @@
         <v>1822</v>
       </c>
       <c r="H140" t="str">
-        <f>VLOOKUP(D140,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D140,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -10327,7 +10323,7 @@
         <v>1628</v>
       </c>
       <c r="E141" t="str">
-        <f>VLOOKUP(D141,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D141,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F141" t="s">
@@ -10337,7 +10333,7 @@
         <v>1804</v>
       </c>
       <c r="H141" t="str">
-        <f>VLOOKUP(D141,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D141,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -10355,7 +10351,7 @@
         <v>1633</v>
       </c>
       <c r="E142" t="str">
-        <f>VLOOKUP(D142,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D142,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F142" t="s">
@@ -10365,7 +10361,7 @@
         <v>1804</v>
       </c>
       <c r="H142" t="str">
-        <f>VLOOKUP(D142,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D142,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -10383,7 +10379,7 @@
         <v>1187</v>
       </c>
       <c r="E143" t="str">
-        <f>VLOOKUP(D143,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D143,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F143" t="s">
@@ -10393,7 +10389,7 @@
         <v>1804</v>
       </c>
       <c r="H143" t="str">
-        <f>VLOOKUP(D143,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D143,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -10411,7 +10407,7 @@
         <v>1187</v>
       </c>
       <c r="E144" t="str">
-        <f>VLOOKUP(D144,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D144,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F144" t="s">
@@ -10421,7 +10417,7 @@
         <v>1822</v>
       </c>
       <c r="H144" t="str">
-        <f>VLOOKUP(D144,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D144,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -10439,7 +10435,7 @@
         <v>552</v>
       </c>
       <c r="E145" t="str">
-        <f>VLOOKUP(D145,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D145,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F145" t="s">
@@ -10448,9 +10444,9 @@
       <c r="G145" t="s">
         <v>1804</v>
       </c>
-      <c r="H145" t="str">
-        <f>VLOOKUP(D145,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H145" t="e">
+        <f>VLOOKUP(D145,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -10467,7 +10463,7 @@
         <v>552</v>
       </c>
       <c r="E146" t="str">
-        <f>VLOOKUP(D146,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D146,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F146" t="s">
@@ -10476,9 +10472,9 @@
       <c r="G146" t="s">
         <v>1804</v>
       </c>
-      <c r="H146" t="str">
-        <f>VLOOKUP(D146,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H146" t="e">
+        <f>VLOOKUP(D146,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -10495,7 +10491,7 @@
         <v>1631</v>
       </c>
       <c r="E147" t="str">
-        <f>VLOOKUP(D147,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D147,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F147" t="s">
@@ -10505,7 +10501,7 @@
         <v>1804</v>
       </c>
       <c r="H147" t="str">
-        <f>VLOOKUP(D147,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D147,name_map!$A$4:$C$24,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
     </row>
@@ -10523,7 +10519,7 @@
         <v>524</v>
       </c>
       <c r="E148" t="str">
-        <f>VLOOKUP(D148,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D148,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F148" t="s">
@@ -10533,7 +10529,7 @@
         <v>1804</v>
       </c>
       <c r="H148" t="str">
-        <f>VLOOKUP(D148,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D148,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -10551,7 +10547,7 @@
         <v>804</v>
       </c>
       <c r="E149" t="str">
-        <f>VLOOKUP(D149,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D149,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F149" t="s">
@@ -10560,9 +10556,9 @@
       <c r="G149" t="s">
         <v>1804</v>
       </c>
-      <c r="H149" t="str">
-        <f>VLOOKUP(D149,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H149" t="e">
+        <f>VLOOKUP(D149,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -10579,7 +10575,7 @@
         <v>1724</v>
       </c>
       <c r="E150" t="str">
-        <f>VLOOKUP(D150,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D150,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F150" t="s">
@@ -10589,7 +10585,7 @@
         <v>1804</v>
       </c>
       <c r="H150" t="str">
-        <f>VLOOKUP(D150,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D150,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -10607,7 +10603,7 @@
         <v>1628</v>
       </c>
       <c r="E151" t="str">
-        <f>VLOOKUP(D151,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D151,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F151" t="s">
@@ -10617,7 +10613,7 @@
         <v>1804</v>
       </c>
       <c r="H151" t="str">
-        <f>VLOOKUP(D151,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D151,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -10635,7 +10631,7 @@
         <v>1187</v>
       </c>
       <c r="E152" t="str">
-        <f>VLOOKUP(D152,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D152,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F152" t="s">
@@ -10645,7 +10641,7 @@
         <v>1804</v>
       </c>
       <c r="H152" t="str">
-        <f>VLOOKUP(D152,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D152,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -10663,7 +10659,7 @@
         <v>601</v>
       </c>
       <c r="E153" t="str">
-        <f>VLOOKUP(D153,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D153,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F153" t="s">
@@ -10673,7 +10669,7 @@
         <v>1804</v>
       </c>
       <c r="H153" t="str">
-        <f>VLOOKUP(D153,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D153,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -10691,7 +10687,7 @@
         <v>1727</v>
       </c>
       <c r="E154" t="str">
-        <f>VLOOKUP(D154,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D154,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F154" t="s">
@@ -10701,7 +10697,7 @@
         <v>1804</v>
       </c>
       <c r="H154" t="str">
-        <f>VLOOKUP(D154,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D154,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -10719,7 +10715,7 @@
         <v>880</v>
       </c>
       <c r="E155" t="str">
-        <f>VLOOKUP(D155,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D155,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F155" t="s">
@@ -10729,7 +10725,7 @@
         <v>1804</v>
       </c>
       <c r="H155" t="str">
-        <f>VLOOKUP(D155,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D155,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -10747,7 +10743,7 @@
         <v>1423</v>
       </c>
       <c r="E156" t="str">
-        <f>VLOOKUP(D156,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D156,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F156" t="s">
@@ -10757,7 +10753,7 @@
         <v>1804</v>
       </c>
       <c r="H156" t="str">
-        <f>VLOOKUP(D156,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D156,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -10775,7 +10771,7 @@
         <v>601</v>
       </c>
       <c r="E157" t="str">
-        <f>VLOOKUP(D157,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D157,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F157" t="s">
@@ -10785,7 +10781,7 @@
         <v>1804</v>
       </c>
       <c r="H157" t="str">
-        <f>VLOOKUP(D157,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D157,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -10803,7 +10799,7 @@
         <v>1423</v>
       </c>
       <c r="E158" t="str">
-        <f>VLOOKUP(D158,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D158,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F158" t="s">
@@ -10813,7 +10809,7 @@
         <v>1804</v>
       </c>
       <c r="H158" t="str">
-        <f>VLOOKUP(D158,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D158,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -10831,7 +10827,7 @@
         <v>1724</v>
       </c>
       <c r="E159" t="str">
-        <f>VLOOKUP(D159,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D159,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F159" t="s">
@@ -10841,7 +10837,7 @@
         <v>1822</v>
       </c>
       <c r="H159" t="str">
-        <f>VLOOKUP(D159,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D159,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -10859,7 +10855,7 @@
         <v>1630</v>
       </c>
       <c r="E160" t="str">
-        <f>VLOOKUP(D160,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D160,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F160" t="s">
@@ -10869,7 +10865,7 @@
         <v>1804</v>
       </c>
       <c r="H160" t="str">
-        <f>VLOOKUP(D160,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D160,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -10887,7 +10883,7 @@
         <v>1726</v>
       </c>
       <c r="E161" t="str">
-        <f>VLOOKUP(D161,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D161,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F161" t="s">
@@ -10897,7 +10893,7 @@
         <v>1804</v>
       </c>
       <c r="H161" t="str">
-        <f>VLOOKUP(D161,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D161,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -10915,7 +10911,7 @@
         <v>1630</v>
       </c>
       <c r="E162" t="str">
-        <f>VLOOKUP(D162,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D162,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F162" t="s">
@@ -10925,7 +10921,7 @@
         <v>1804</v>
       </c>
       <c r="H162" t="str">
-        <f>VLOOKUP(D162,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D162,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -10943,7 +10939,7 @@
         <v>1726</v>
       </c>
       <c r="E163" t="str">
-        <f>VLOOKUP(D163,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D163,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F163" t="s">
@@ -10953,7 +10949,7 @@
         <v>1804</v>
       </c>
       <c r="H163" t="str">
-        <f>VLOOKUP(D163,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D163,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -10971,7 +10967,7 @@
         <v>1084</v>
       </c>
       <c r="E164" t="str">
-        <f>VLOOKUP(D164,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D164,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F164" t="s">
@@ -10981,7 +10977,7 @@
         <v>1822</v>
       </c>
       <c r="H164" t="str">
-        <f>VLOOKUP(D164,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D164,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -10999,7 +10995,7 @@
         <v>942</v>
       </c>
       <c r="E165" t="str">
-        <f>VLOOKUP(D165,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D165,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F165" t="s">
@@ -11009,7 +11005,7 @@
         <v>1822</v>
       </c>
       <c r="H165" t="str">
-        <f>VLOOKUP(D165,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D165,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -11027,7 +11023,7 @@
         <v>1726</v>
       </c>
       <c r="E166" t="str">
-        <f>VLOOKUP(D166,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D166,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F166" t="s">
@@ -11037,7 +11033,7 @@
         <v>1804</v>
       </c>
       <c r="H166" t="str">
-        <f>VLOOKUP(D166,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D166,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -11055,7 +11051,7 @@
         <v>1633</v>
       </c>
       <c r="E167" t="str">
-        <f>VLOOKUP(D167,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D167,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F167" t="s">
@@ -11065,7 +11061,7 @@
         <v>1822</v>
       </c>
       <c r="H167" t="str">
-        <f>VLOOKUP(D167,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D167,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -11083,7 +11079,7 @@
         <v>552</v>
       </c>
       <c r="E168" t="str">
-        <f>VLOOKUP(D168,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D168,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F168" t="s">
@@ -11092,9 +11088,9 @@
       <c r="G168" t="s">
         <v>1804</v>
       </c>
-      <c r="H168" t="str">
-        <f>VLOOKUP(D168,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H168" t="e">
+        <f>VLOOKUP(D168,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -11111,7 +11107,7 @@
         <v>880</v>
       </c>
       <c r="E169" t="str">
-        <f>VLOOKUP(D169,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D169,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F169" t="s">
@@ -11121,7 +11117,7 @@
         <v>1804</v>
       </c>
       <c r="H169" t="str">
-        <f>VLOOKUP(D169,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D169,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -11139,7 +11135,7 @@
         <v>1187</v>
       </c>
       <c r="E170" t="str">
-        <f>VLOOKUP(D170,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D170,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F170" t="s">
@@ -11149,7 +11145,7 @@
         <v>1804</v>
       </c>
       <c r="H170" t="str">
-        <f>VLOOKUP(D170,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D170,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -11167,7 +11163,7 @@
         <v>1628</v>
       </c>
       <c r="E171" t="str">
-        <f>VLOOKUP(D171,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D171,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F171" t="s">
@@ -11177,7 +11173,7 @@
         <v>1822</v>
       </c>
       <c r="H171" t="str">
-        <f>VLOOKUP(D171,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D171,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -11195,7 +11191,7 @@
         <v>1084</v>
       </c>
       <c r="E172" t="str">
-        <f>VLOOKUP(D172,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D172,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F172" t="s">
@@ -11205,7 +11201,7 @@
         <v>1804</v>
       </c>
       <c r="H172" t="str">
-        <f>VLOOKUP(D172,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D172,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -11223,7 +11219,7 @@
         <v>1628</v>
       </c>
       <c r="E173" t="str">
-        <f>VLOOKUP(D173,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D173,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F173" t="s">
@@ -11233,7 +11229,7 @@
         <v>1822</v>
       </c>
       <c r="H173" t="str">
-        <f>VLOOKUP(D173,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D173,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -11251,7 +11247,7 @@
         <v>552</v>
       </c>
       <c r="E174" t="str">
-        <f>VLOOKUP(D174,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D174,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F174" t="s">
@@ -11260,9 +11256,9 @@
       <c r="G174" t="s">
         <v>1804</v>
       </c>
-      <c r="H174" t="str">
-        <f>VLOOKUP(D174,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H174" t="e">
+        <f>VLOOKUP(D174,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -11279,7 +11275,7 @@
         <v>1187</v>
       </c>
       <c r="E175" t="str">
-        <f>VLOOKUP(D175,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D175,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F175" t="s">
@@ -11289,7 +11285,7 @@
         <v>1804</v>
       </c>
       <c r="H175" t="str">
-        <f>VLOOKUP(D175,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D175,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -11307,7 +11303,7 @@
         <v>599</v>
       </c>
       <c r="E176" t="str">
-        <f>VLOOKUP(D176,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D176,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F176" t="s">
@@ -11317,7 +11313,7 @@
         <v>1804</v>
       </c>
       <c r="H176" t="str">
-        <f>VLOOKUP(D176,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D176,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -11335,7 +11331,7 @@
         <v>552</v>
       </c>
       <c r="E177" t="str">
-        <f>VLOOKUP(D177,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D177,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F177" t="s">
@@ -11344,9 +11340,9 @@
       <c r="G177" t="s">
         <v>1822</v>
       </c>
-      <c r="H177" t="str">
-        <f>VLOOKUP(D177,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H177" t="e">
+        <f>VLOOKUP(D177,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -11363,7 +11359,7 @@
         <v>552</v>
       </c>
       <c r="E178" t="str">
-        <f>VLOOKUP(D178,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D178,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F178" t="s">
@@ -11372,9 +11368,9 @@
       <c r="G178" t="s">
         <v>1804</v>
       </c>
-      <c r="H178" t="str">
-        <f>VLOOKUP(D178,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H178" t="e">
+        <f>VLOOKUP(D178,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -11391,7 +11387,7 @@
         <v>1423</v>
       </c>
       <c r="E179" t="str">
-        <f>VLOOKUP(D179,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D179,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F179" t="s">
@@ -11401,7 +11397,7 @@
         <v>1822</v>
       </c>
       <c r="H179" t="str">
-        <f>VLOOKUP(D179,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D179,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -11419,7 +11415,7 @@
         <v>1633</v>
       </c>
       <c r="E180" t="str">
-        <f>VLOOKUP(D180,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D180,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F180" t="s">
@@ -11429,7 +11425,7 @@
         <v>1804</v>
       </c>
       <c r="H180" t="str">
-        <f>VLOOKUP(D180,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D180,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -11447,7 +11443,7 @@
         <v>552</v>
       </c>
       <c r="E181" t="str">
-        <f>VLOOKUP(D181,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D181,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F181" t="s">
@@ -11456,9 +11452,9 @@
       <c r="G181" t="s">
         <v>1822</v>
       </c>
-      <c r="H181" t="str">
-        <f>VLOOKUP(D181,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H181" t="e">
+        <f>VLOOKUP(D181,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -11475,7 +11471,7 @@
         <v>1187</v>
       </c>
       <c r="E182" t="str">
-        <f>VLOOKUP(D182,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D182,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F182" t="s">
@@ -11485,7 +11481,7 @@
         <v>1804</v>
       </c>
       <c r="H182" t="str">
-        <f>VLOOKUP(D182,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D182,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -11503,7 +11499,7 @@
         <v>1187</v>
       </c>
       <c r="E183" t="str">
-        <f>VLOOKUP(D183,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D183,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F183" t="s">
@@ -11513,7 +11509,7 @@
         <v>1804</v>
       </c>
       <c r="H183" t="str">
-        <f>VLOOKUP(D183,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D183,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -11531,7 +11527,7 @@
         <v>1084</v>
       </c>
       <c r="E184" t="str">
-        <f>VLOOKUP(D184,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D184,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F184" t="s">
@@ -11541,7 +11537,7 @@
         <v>1804</v>
       </c>
       <c r="H184" t="str">
-        <f>VLOOKUP(D184,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D184,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -11559,7 +11555,7 @@
         <v>552</v>
       </c>
       <c r="E185" t="str">
-        <f>VLOOKUP(D185,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D185,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F185" t="s">
@@ -11568,9 +11564,9 @@
       <c r="G185" t="s">
         <v>1804</v>
       </c>
-      <c r="H185" t="str">
-        <f>VLOOKUP(D185,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H185" t="e">
+        <f>VLOOKUP(D185,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -11587,7 +11583,7 @@
         <v>1727</v>
       </c>
       <c r="E186" t="str">
-        <f>VLOOKUP(D186,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D186,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F186" t="s">
@@ -11597,7 +11593,7 @@
         <v>1804</v>
       </c>
       <c r="H186" t="str">
-        <f>VLOOKUP(D186,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D186,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -11615,7 +11611,7 @@
         <v>601</v>
       </c>
       <c r="E187" t="str">
-        <f>VLOOKUP(D187,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D187,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F187" t="s">
@@ -11625,7 +11621,7 @@
         <v>1804</v>
       </c>
       <c r="H187" t="str">
-        <f>VLOOKUP(D187,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D187,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -11643,7 +11639,7 @@
         <v>942</v>
       </c>
       <c r="E188" t="str">
-        <f>VLOOKUP(D188,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D188,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F188" t="s">
@@ -11653,7 +11649,7 @@
         <v>1804</v>
       </c>
       <c r="H188" t="str">
-        <f>VLOOKUP(D188,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D188,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -11671,7 +11667,7 @@
         <v>1630</v>
       </c>
       <c r="E189" t="str">
-        <f>VLOOKUP(D189,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D189,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F189" t="s">
@@ -11681,7 +11677,7 @@
         <v>1822</v>
       </c>
       <c r="H189" t="str">
-        <f>VLOOKUP(D189,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D189,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -11699,7 +11695,7 @@
         <v>1727</v>
       </c>
       <c r="E190" t="str">
-        <f>VLOOKUP(D190,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D190,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F190" t="s">
@@ -11709,7 +11705,7 @@
         <v>1804</v>
       </c>
       <c r="H190" t="str">
-        <f>VLOOKUP(D190,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D190,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -11727,7 +11723,7 @@
         <v>552</v>
       </c>
       <c r="E191" t="str">
-        <f>VLOOKUP(D191,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D191,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F191" t="s">
@@ -11736,9 +11732,9 @@
       <c r="G191" t="s">
         <v>1804</v>
       </c>
-      <c r="H191" t="str">
-        <f>VLOOKUP(D191,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H191" t="e">
+        <f>VLOOKUP(D191,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -11755,7 +11751,7 @@
         <v>552</v>
       </c>
       <c r="E192" t="str">
-        <f>VLOOKUP(D192,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D192,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F192" t="s">
@@ -11764,9 +11760,9 @@
       <c r="G192" t="s">
         <v>1804</v>
       </c>
-      <c r="H192" t="str">
-        <f>VLOOKUP(D192,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H192" t="e">
+        <f>VLOOKUP(D192,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -11783,7 +11779,7 @@
         <v>1727</v>
       </c>
       <c r="E193" t="str">
-        <f>VLOOKUP(D193,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D193,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F193" t="s">
@@ -11793,7 +11789,7 @@
         <v>1822</v>
       </c>
       <c r="H193" t="str">
-        <f>VLOOKUP(D193,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D193,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -11811,7 +11807,7 @@
         <v>942</v>
       </c>
       <c r="E194" t="str">
-        <f>VLOOKUP(D194,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D194,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F194" t="s">
@@ -11821,7 +11817,7 @@
         <v>1822</v>
       </c>
       <c r="H194" t="str">
-        <f>VLOOKUP(D194,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D194,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -11839,7 +11835,7 @@
         <v>1633</v>
       </c>
       <c r="E195" t="str">
-        <f>VLOOKUP(D195,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D195,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F195" t="s">
@@ -11849,7 +11845,7 @@
         <v>1804</v>
       </c>
       <c r="H195" t="str">
-        <f>VLOOKUP(D195,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D195,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -11867,7 +11863,7 @@
         <v>1630</v>
       </c>
       <c r="E196" t="str">
-        <f>VLOOKUP(D196,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D196,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F196" t="s">
@@ -11877,7 +11873,7 @@
         <v>1804</v>
       </c>
       <c r="H196" t="str">
-        <f>VLOOKUP(D196,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D196,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -11895,7 +11891,7 @@
         <v>1724</v>
       </c>
       <c r="E197" t="str">
-        <f>VLOOKUP(D197,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D197,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F197" t="s">
@@ -11905,7 +11901,7 @@
         <v>1804</v>
       </c>
       <c r="H197" t="str">
-        <f>VLOOKUP(D197,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D197,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -11923,7 +11919,7 @@
         <v>1187</v>
       </c>
       <c r="E198" t="str">
-        <f>VLOOKUP(D198,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D198,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F198" t="s">
@@ -11933,7 +11929,7 @@
         <v>1804</v>
       </c>
       <c r="H198" t="str">
-        <f>VLOOKUP(D198,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D198,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -11951,7 +11947,7 @@
         <v>1731</v>
       </c>
       <c r="E199" t="str">
-        <f>VLOOKUP(D199,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D199,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F199" t="s">
@@ -11961,7 +11957,7 @@
         <v>1804</v>
       </c>
       <c r="H199" t="str">
-        <f>VLOOKUP(D199,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D199,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -11979,7 +11975,7 @@
         <v>1187</v>
       </c>
       <c r="E200" t="str">
-        <f>VLOOKUP(D200,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D200,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F200" t="s">
@@ -11989,7 +11985,7 @@
         <v>1822</v>
       </c>
       <c r="H200" t="str">
-        <f>VLOOKUP(D200,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D200,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -12007,7 +12003,7 @@
         <v>1187</v>
       </c>
       <c r="E201" t="str">
-        <f>VLOOKUP(D201,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D201,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F201" t="s">
@@ -12017,7 +12013,7 @@
         <v>1804</v>
       </c>
       <c r="H201" t="str">
-        <f>VLOOKUP(D201,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D201,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -12035,7 +12031,7 @@
         <v>1187</v>
       </c>
       <c r="E202" t="str">
-        <f>VLOOKUP(D202,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D202,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F202" t="s">
@@ -12045,7 +12041,7 @@
         <v>1822</v>
       </c>
       <c r="H202" t="str">
-        <f>VLOOKUP(D202,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D202,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -12063,7 +12059,7 @@
         <v>1187</v>
       </c>
       <c r="E203" t="str">
-        <f>VLOOKUP(D203,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D203,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F203" t="s">
@@ -12073,7 +12069,7 @@
         <v>1822</v>
       </c>
       <c r="H203" t="str">
-        <f>VLOOKUP(D203,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D203,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -12091,7 +12087,7 @@
         <v>1731</v>
       </c>
       <c r="E204" t="str">
-        <f>VLOOKUP(D204,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D204,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F204" t="s">
@@ -12101,7 +12097,7 @@
         <v>1804</v>
       </c>
       <c r="H204" t="str">
-        <f>VLOOKUP(D204,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D204,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -12119,7 +12115,7 @@
         <v>1629</v>
       </c>
       <c r="E205" t="str">
-        <f>VLOOKUP(D205,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D205,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F205" t="s">
@@ -12129,7 +12125,7 @@
         <v>1804</v>
       </c>
       <c r="H205" t="str">
-        <f>VLOOKUP(D205,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D205,name_map!$A$4:$C$24,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
     </row>
@@ -12147,7 +12143,7 @@
         <v>524</v>
       </c>
       <c r="E206" t="str">
-        <f>VLOOKUP(D206,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D206,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F206" t="s">
@@ -12157,7 +12153,7 @@
         <v>1804</v>
       </c>
       <c r="H206" t="str">
-        <f>VLOOKUP(D206,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D206,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -12175,7 +12171,7 @@
         <v>1632</v>
       </c>
       <c r="E207" t="str">
-        <f>VLOOKUP(D207,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D207,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F207" t="s">
@@ -12185,7 +12181,7 @@
         <v>1804</v>
       </c>
       <c r="H207" t="str">
-        <f>VLOOKUP(D207,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D207,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -12203,7 +12199,7 @@
         <v>1631</v>
       </c>
       <c r="E208" t="str">
-        <f>VLOOKUP(D208,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D208,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F208" t="s">
@@ -12213,7 +12209,7 @@
         <v>1822</v>
       </c>
       <c r="H208" t="str">
-        <f>VLOOKUP(D208,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D208,name_map!$A$4:$C$24,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
     </row>
@@ -12231,7 +12227,7 @@
         <v>552</v>
       </c>
       <c r="E209" t="str">
-        <f>VLOOKUP(D209,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D209,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F209" t="s">
@@ -12240,9 +12236,9 @@
       <c r="G209" t="s">
         <v>1804</v>
       </c>
-      <c r="H209" t="str">
-        <f>VLOOKUP(D209,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H209" t="e">
+        <f>VLOOKUP(D209,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -12259,7 +12255,7 @@
         <v>552</v>
       </c>
       <c r="E210" t="str">
-        <f>VLOOKUP(D210,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D210,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F210" t="s">
@@ -12268,9 +12264,9 @@
       <c r="G210" t="s">
         <v>1822</v>
       </c>
-      <c r="H210" t="str">
-        <f>VLOOKUP(D210,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H210" t="e">
+        <f>VLOOKUP(D210,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -12287,7 +12283,7 @@
         <v>1629</v>
       </c>
       <c r="E211" t="str">
-        <f>VLOOKUP(D211,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D211,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F211" t="s">
@@ -12297,7 +12293,7 @@
         <v>1804</v>
       </c>
       <c r="H211" t="str">
-        <f>VLOOKUP(D211,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D211,name_map!$A$4:$C$24,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
     </row>
@@ -12315,7 +12311,7 @@
         <v>552</v>
       </c>
       <c r="E212" t="str">
-        <f>VLOOKUP(D212,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D212,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F212" t="s">
@@ -12324,9 +12320,9 @@
       <c r="G212" t="s">
         <v>1822</v>
       </c>
-      <c r="H212" t="str">
-        <f>VLOOKUP(D212,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H212" t="e">
+        <f>VLOOKUP(D212,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -12343,7 +12339,7 @@
         <v>552</v>
       </c>
       <c r="E213" t="str">
-        <f>VLOOKUP(D213,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D213,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F213" t="s">
@@ -12352,9 +12348,9 @@
       <c r="G213" t="s">
         <v>1804</v>
       </c>
-      <c r="H213" t="str">
-        <f>VLOOKUP(D213,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H213" t="e">
+        <f>VLOOKUP(D213,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -12371,7 +12367,7 @@
         <v>524</v>
       </c>
       <c r="E214" t="str">
-        <f>VLOOKUP(D214,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D214,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F214" t="s">
@@ -12381,7 +12377,7 @@
         <v>1804</v>
       </c>
       <c r="H214" t="str">
-        <f>VLOOKUP(D214,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D214,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -12399,7 +12395,7 @@
         <v>1633</v>
       </c>
       <c r="E215" t="str">
-        <f>VLOOKUP(D215,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D215,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F215" t="s">
@@ -12409,7 +12405,7 @@
         <v>1804</v>
       </c>
       <c r="H215" t="str">
-        <f>VLOOKUP(D215,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D215,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -12427,7 +12423,7 @@
         <v>1628</v>
       </c>
       <c r="E216" t="str">
-        <f>VLOOKUP(D216,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D216,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F216" t="s">
@@ -12437,7 +12433,7 @@
         <v>1804</v>
       </c>
       <c r="H216" t="str">
-        <f>VLOOKUP(D216,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D216,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -12455,7 +12451,7 @@
         <v>832</v>
       </c>
       <c r="E217" t="str">
-        <f>VLOOKUP(D217,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D217,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F217" t="s">
@@ -12465,7 +12461,7 @@
         <v>1804</v>
       </c>
       <c r="H217" t="str">
-        <f>VLOOKUP(D217,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D217,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -12483,7 +12479,7 @@
         <v>1632</v>
       </c>
       <c r="E218" t="str">
-        <f>VLOOKUP(D218,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D218,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F218" t="s">
@@ -12493,7 +12489,7 @@
         <v>1804</v>
       </c>
       <c r="H218" t="str">
-        <f>VLOOKUP(D218,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D218,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -12511,7 +12507,7 @@
         <v>942</v>
       </c>
       <c r="E219" t="str">
-        <f>VLOOKUP(D219,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D219,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F219" t="s">
@@ -12521,7 +12517,7 @@
         <v>1804</v>
       </c>
       <c r="H219" t="str">
-        <f>VLOOKUP(D219,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D219,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -12539,7 +12535,7 @@
         <v>552</v>
       </c>
       <c r="E220" t="str">
-        <f>VLOOKUP(D220,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D220,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F220" t="s">
@@ -12548,9 +12544,9 @@
       <c r="G220" t="s">
         <v>1804</v>
       </c>
-      <c r="H220" t="str">
-        <f>VLOOKUP(D220,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H220" t="e">
+        <f>VLOOKUP(D220,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -12567,7 +12563,7 @@
         <v>1630</v>
       </c>
       <c r="E221" t="str">
-        <f>VLOOKUP(D221,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D221,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F221" t="s">
@@ -12577,7 +12573,7 @@
         <v>1804</v>
       </c>
       <c r="H221" t="str">
-        <f>VLOOKUP(D221,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D221,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -12595,7 +12591,7 @@
         <v>552</v>
       </c>
       <c r="E222" t="str">
-        <f>VLOOKUP(D222,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D222,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F222" t="s">
@@ -12604,9 +12600,9 @@
       <c r="G222" t="s">
         <v>1804</v>
       </c>
-      <c r="H222" t="str">
-        <f>VLOOKUP(D222,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H222" t="e">
+        <f>VLOOKUP(D222,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -12623,7 +12619,7 @@
         <v>601</v>
       </c>
       <c r="E223" t="str">
-        <f>VLOOKUP(D223,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D223,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F223" t="s">
@@ -12633,7 +12629,7 @@
         <v>1804</v>
       </c>
       <c r="H223" t="str">
-        <f>VLOOKUP(D223,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D223,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -12651,7 +12647,7 @@
         <v>599</v>
       </c>
       <c r="E224" t="str">
-        <f>VLOOKUP(D224,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D224,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F224" t="s">
@@ -12661,7 +12657,7 @@
         <v>1804</v>
       </c>
       <c r="H224" t="str">
-        <f>VLOOKUP(D224,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D224,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -12679,7 +12675,7 @@
         <v>1724</v>
       </c>
       <c r="E225" t="str">
-        <f>VLOOKUP(D225,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D225,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F225" t="s">
@@ -12689,7 +12685,7 @@
         <v>1804</v>
       </c>
       <c r="H225" t="str">
-        <f>VLOOKUP(D225,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D225,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -12707,7 +12703,7 @@
         <v>1632</v>
       </c>
       <c r="E226" t="str">
-        <f>VLOOKUP(D226,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D226,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F226" t="s">
@@ -12717,7 +12713,7 @@
         <v>1804</v>
       </c>
       <c r="H226" t="str">
-        <f>VLOOKUP(D226,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D226,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -12735,7 +12731,7 @@
         <v>1630</v>
       </c>
       <c r="E227" t="str">
-        <f>VLOOKUP(D227,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D227,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F227" t="s">
@@ -12745,7 +12741,7 @@
         <v>1804</v>
       </c>
       <c r="H227" t="str">
-        <f>VLOOKUP(D227,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D227,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -12763,7 +12759,7 @@
         <v>1633</v>
       </c>
       <c r="E228" t="str">
-        <f>VLOOKUP(D228,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D228,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F228" t="s">
@@ -12773,7 +12769,7 @@
         <v>1804</v>
       </c>
       <c r="H228" t="str">
-        <f>VLOOKUP(D228,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D228,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -12791,7 +12787,7 @@
         <v>552</v>
       </c>
       <c r="E229" t="str">
-        <f>VLOOKUP(D229,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D229,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F229" t="s">
@@ -12800,9 +12796,9 @@
       <c r="G229" t="s">
         <v>1804</v>
       </c>
-      <c r="H229" t="str">
-        <f>VLOOKUP(D229,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H229" t="e">
+        <f>VLOOKUP(D229,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -12819,7 +12815,7 @@
         <v>1633</v>
       </c>
       <c r="E230" t="str">
-        <f>VLOOKUP(D230,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D230,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F230" t="s">
@@ -12829,7 +12825,7 @@
         <v>1822</v>
       </c>
       <c r="H230" t="str">
-        <f>VLOOKUP(D230,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D230,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -12847,7 +12843,7 @@
         <v>1727</v>
       </c>
       <c r="E231" t="str">
-        <f>VLOOKUP(D231,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D231,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F231" t="s">
@@ -12857,7 +12853,7 @@
         <v>1804</v>
       </c>
       <c r="H231" t="str">
-        <f>VLOOKUP(D231,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D231,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -12875,7 +12871,7 @@
         <v>1187</v>
       </c>
       <c r="E232" t="str">
-        <f>VLOOKUP(D232,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D232,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F232" t="s">
@@ -12885,7 +12881,7 @@
         <v>1804</v>
       </c>
       <c r="H232" t="str">
-        <f>VLOOKUP(D232,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D232,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -12903,7 +12899,7 @@
         <v>1187</v>
       </c>
       <c r="E233" t="str">
-        <f>VLOOKUP(D233,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D233,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F233" t="s">
@@ -12913,7 +12909,7 @@
         <v>1804</v>
       </c>
       <c r="H233" t="str">
-        <f>VLOOKUP(D233,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D233,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -12931,7 +12927,7 @@
         <v>1084</v>
       </c>
       <c r="E234" t="str">
-        <f>VLOOKUP(D234,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D234,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F234" t="s">
@@ -12941,7 +12937,7 @@
         <v>1822</v>
       </c>
       <c r="H234" t="str">
-        <f>VLOOKUP(D234,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D234,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -12959,7 +12955,7 @@
         <v>1187</v>
       </c>
       <c r="E235" t="str">
-        <f>VLOOKUP(D235,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D235,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F235" t="s">
@@ -12969,7 +12965,7 @@
         <v>1804</v>
       </c>
       <c r="H235" t="str">
-        <f>VLOOKUP(D235,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D235,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -12987,7 +12983,7 @@
         <v>1633</v>
       </c>
       <c r="E236" t="str">
-        <f>VLOOKUP(D236,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D236,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F236" t="s">
@@ -12997,7 +12993,7 @@
         <v>1822</v>
       </c>
       <c r="H236" t="str">
-        <f>VLOOKUP(D236,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D236,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -13015,7 +13011,7 @@
         <v>552</v>
       </c>
       <c r="E237" t="str">
-        <f>VLOOKUP(D237,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D237,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F237" t="s">
@@ -13024,9 +13020,9 @@
       <c r="G237" t="s">
         <v>1804</v>
       </c>
-      <c r="H237" t="str">
-        <f>VLOOKUP(D237,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H237" t="e">
+        <f>VLOOKUP(D237,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -13043,7 +13039,7 @@
         <v>832</v>
       </c>
       <c r="E238" t="str">
-        <f>VLOOKUP(D238,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D238,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F238" t="s">
@@ -13053,7 +13049,7 @@
         <v>1804</v>
       </c>
       <c r="H238" t="str">
-        <f>VLOOKUP(D238,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D238,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -13071,7 +13067,7 @@
         <v>552</v>
       </c>
       <c r="E239" t="str">
-        <f>VLOOKUP(D239,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D239,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F239" t="s">
@@ -13080,9 +13076,9 @@
       <c r="G239" t="s">
         <v>1804</v>
       </c>
-      <c r="H239" t="str">
-        <f>VLOOKUP(D239,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H239" t="e">
+        <f>VLOOKUP(D239,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -13099,7 +13095,7 @@
         <v>1632</v>
       </c>
       <c r="E240" t="str">
-        <f>VLOOKUP(D240,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D240,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F240" t="s">
@@ -13109,7 +13105,7 @@
         <v>1804</v>
       </c>
       <c r="H240" t="str">
-        <f>VLOOKUP(D240,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D240,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -13127,7 +13123,7 @@
         <v>1187</v>
       </c>
       <c r="E241" t="str">
-        <f>VLOOKUP(D241,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D241,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F241" t="s">
@@ -13137,7 +13133,7 @@
         <v>1822</v>
       </c>
       <c r="H241" t="str">
-        <f>VLOOKUP(D241,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D241,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -13155,7 +13151,7 @@
         <v>804</v>
       </c>
       <c r="E242" t="str">
-        <f>VLOOKUP(D242,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D242,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F242" t="s">
@@ -13164,9 +13160,9 @@
       <c r="G242" t="s">
         <v>1804</v>
       </c>
-      <c r="H242" t="str">
-        <f>VLOOKUP(D242,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H242" t="e">
+        <f>VLOOKUP(D242,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -13183,7 +13179,7 @@
         <v>599</v>
       </c>
       <c r="E243" t="str">
-        <f>VLOOKUP(D243,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D243,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F243" t="s">
@@ -13193,7 +13189,7 @@
         <v>1804</v>
       </c>
       <c r="H243" t="str">
-        <f>VLOOKUP(D243,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D243,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -13211,7 +13207,7 @@
         <v>1423</v>
       </c>
       <c r="E244" t="str">
-        <f>VLOOKUP(D244,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D244,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F244" t="s">
@@ -13221,7 +13217,7 @@
         <v>1804</v>
       </c>
       <c r="H244" t="str">
-        <f>VLOOKUP(D244,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D244,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -13239,7 +13235,7 @@
         <v>942</v>
       </c>
       <c r="E245" t="str">
-        <f>VLOOKUP(D245,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D245,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F245" t="s">
@@ -13249,7 +13245,7 @@
         <v>1804</v>
       </c>
       <c r="H245" t="str">
-        <f>VLOOKUP(D245,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D245,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -13267,7 +13263,7 @@
         <v>1084</v>
       </c>
       <c r="E246" t="str">
-        <f>VLOOKUP(D246,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D246,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F246" t="s">
@@ -13277,7 +13273,7 @@
         <v>1822</v>
       </c>
       <c r="H246" t="str">
-        <f>VLOOKUP(D246,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D246,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -13295,7 +13291,7 @@
         <v>1726</v>
       </c>
       <c r="E247" t="str">
-        <f>VLOOKUP(D247,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D247,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F247" t="s">
@@ -13305,7 +13301,7 @@
         <v>1804</v>
       </c>
       <c r="H247" t="str">
-        <f>VLOOKUP(D247,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D247,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -13323,7 +13319,7 @@
         <v>599</v>
       </c>
       <c r="E248" t="str">
-        <f>VLOOKUP(D248,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D248,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F248" t="s">
@@ -13333,7 +13329,7 @@
         <v>1804</v>
       </c>
       <c r="H248" t="str">
-        <f>VLOOKUP(D248,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D248,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -13351,7 +13347,7 @@
         <v>880</v>
       </c>
       <c r="E249" t="str">
-        <f>VLOOKUP(D249,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D249,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F249" t="s">
@@ -13361,7 +13357,7 @@
         <v>1822</v>
       </c>
       <c r="H249" t="str">
-        <f>VLOOKUP(D249,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D249,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -13379,7 +13375,7 @@
         <v>1628</v>
       </c>
       <c r="E250" t="str">
-        <f>VLOOKUP(D250,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D250,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F250" t="s">
@@ -13389,7 +13385,7 @@
         <v>1804</v>
       </c>
       <c r="H250" t="str">
-        <f>VLOOKUP(D250,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D250,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -13407,7 +13403,7 @@
         <v>1187</v>
       </c>
       <c r="E251" t="str">
-        <f>VLOOKUP(D251,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D251,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F251" t="s">
@@ -13417,7 +13413,7 @@
         <v>1822</v>
       </c>
       <c r="H251" t="str">
-        <f>VLOOKUP(D251,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D251,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -13435,7 +13431,7 @@
         <v>942</v>
       </c>
       <c r="E252" t="str">
-        <f>VLOOKUP(D252,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D252,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F252" t="s">
@@ -13445,7 +13441,7 @@
         <v>1804</v>
       </c>
       <c r="H252" t="str">
-        <f>VLOOKUP(D252,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D252,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -13463,7 +13459,7 @@
         <v>1726</v>
       </c>
       <c r="E253" t="str">
-        <f>VLOOKUP(D253,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D253,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F253" t="s">
@@ -13473,7 +13469,7 @@
         <v>1804</v>
       </c>
       <c r="H253" t="str">
-        <f>VLOOKUP(D253,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D253,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -13491,7 +13487,7 @@
         <v>594</v>
       </c>
       <c r="E254" t="str">
-        <f>VLOOKUP(D254,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D254,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F254" t="s">
@@ -13501,7 +13497,7 @@
         <v>1804</v>
       </c>
       <c r="H254" t="str">
-        <f>VLOOKUP(D254,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D254,name_map!$A$4:$C$24,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
     </row>
@@ -13519,7 +13515,7 @@
         <v>1631</v>
       </c>
       <c r="E255" t="str">
-        <f>VLOOKUP(D255,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D255,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F255" t="s">
@@ -13529,7 +13525,7 @@
         <v>1804</v>
       </c>
       <c r="H255" t="str">
-        <f>VLOOKUP(D255,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D255,name_map!$A$4:$C$24,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
     </row>
@@ -13547,7 +13543,7 @@
         <v>599</v>
       </c>
       <c r="E256" t="str">
-        <f>VLOOKUP(D256,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D256,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F256" t="s">
@@ -13557,7 +13553,7 @@
         <v>1804</v>
       </c>
       <c r="H256" t="str">
-        <f>VLOOKUP(D256,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D256,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -13575,7 +13571,7 @@
         <v>1724</v>
       </c>
       <c r="E257" t="str">
-        <f>VLOOKUP(D257,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D257,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F257" t="s">
@@ -13585,7 +13581,7 @@
         <v>1822</v>
       </c>
       <c r="H257" t="str">
-        <f>VLOOKUP(D257,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D257,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -13603,7 +13599,7 @@
         <v>942</v>
       </c>
       <c r="E258" t="str">
-        <f>VLOOKUP(D258,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D258,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F258" t="s">
@@ -13613,7 +13609,7 @@
         <v>1804</v>
       </c>
       <c r="H258" t="str">
-        <f>VLOOKUP(D258,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D258,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -13631,7 +13627,7 @@
         <v>1633</v>
       </c>
       <c r="E259" t="str">
-        <f>VLOOKUP(D259,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D259,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F259" t="s">
@@ -13641,7 +13637,7 @@
         <v>1804</v>
       </c>
       <c r="H259" t="str">
-        <f>VLOOKUP(D259,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D259,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -13659,7 +13655,7 @@
         <v>1187</v>
       </c>
       <c r="E260" t="str">
-        <f>VLOOKUP(D260,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D260,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F260" t="s">
@@ -13669,7 +13665,7 @@
         <v>1822</v>
       </c>
       <c r="H260" t="str">
-        <f>VLOOKUP(D260,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D260,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -13687,7 +13683,7 @@
         <v>1630</v>
       </c>
       <c r="E261" t="str">
-        <f>VLOOKUP(D261,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D261,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F261" t="s">
@@ -13697,7 +13693,7 @@
         <v>1804</v>
       </c>
       <c r="H261" t="str">
-        <f>VLOOKUP(D261,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D261,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -13715,7 +13711,7 @@
         <v>804</v>
       </c>
       <c r="E262" t="str">
-        <f>VLOOKUP(D262,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D262,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F262" t="s">
@@ -13724,9 +13720,9 @@
       <c r="G262" t="s">
         <v>1804</v>
       </c>
-      <c r="H262" t="str">
-        <f>VLOOKUP(D262,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H262" t="e">
+        <f>VLOOKUP(D262,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -13743,7 +13739,7 @@
         <v>599</v>
       </c>
       <c r="E263" t="str">
-        <f>VLOOKUP(D263,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D263,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F263" t="s">
@@ -13753,7 +13749,7 @@
         <v>1804</v>
       </c>
       <c r="H263" t="str">
-        <f>VLOOKUP(D263,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D263,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -13771,7 +13767,7 @@
         <v>942</v>
       </c>
       <c r="E264" t="str">
-        <f>VLOOKUP(D264,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D264,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F264" t="s">
@@ -13781,7 +13777,7 @@
         <v>1804</v>
       </c>
       <c r="H264" t="str">
-        <f>VLOOKUP(D264,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D264,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -13799,7 +13795,7 @@
         <v>1187</v>
       </c>
       <c r="E265" t="str">
-        <f>VLOOKUP(D265,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D265,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F265" t="s">
@@ -13809,7 +13805,7 @@
         <v>1804</v>
       </c>
       <c r="H265" t="str">
-        <f>VLOOKUP(D265,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D265,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -13827,7 +13823,7 @@
         <v>552</v>
       </c>
       <c r="E266" t="str">
-        <f>VLOOKUP(D266,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D266,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F266" t="s">
@@ -13836,9 +13832,9 @@
       <c r="G266" t="s">
         <v>1804</v>
       </c>
-      <c r="H266" t="str">
-        <f>VLOOKUP(D266,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H266" t="e">
+        <f>VLOOKUP(D266,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -13855,7 +13851,7 @@
         <v>1633</v>
       </c>
       <c r="E267" t="str">
-        <f>VLOOKUP(D267,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D267,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F267" t="s">
@@ -13865,7 +13861,7 @@
         <v>1804</v>
       </c>
       <c r="H267" t="str">
-        <f>VLOOKUP(D267,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D267,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -13883,7 +13879,7 @@
         <v>552</v>
       </c>
       <c r="E268" t="str">
-        <f>VLOOKUP(D268,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D268,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F268" t="s">
@@ -13892,9 +13888,9 @@
       <c r="G268" t="s">
         <v>1804</v>
       </c>
-      <c r="H268" t="str">
-        <f>VLOOKUP(D268,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H268" t="e">
+        <f>VLOOKUP(D268,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -13911,7 +13907,7 @@
         <v>1724</v>
       </c>
       <c r="E269" t="str">
-        <f>VLOOKUP(D269,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D269,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F269" t="s">
@@ -13921,7 +13917,7 @@
         <v>1804</v>
       </c>
       <c r="H269" t="str">
-        <f>VLOOKUP(D269,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D269,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -13939,7 +13935,7 @@
         <v>1187</v>
       </c>
       <c r="E270" t="str">
-        <f>VLOOKUP(D270,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D270,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F270" t="s">
@@ -13949,7 +13945,7 @@
         <v>1804</v>
       </c>
       <c r="H270" t="str">
-        <f>VLOOKUP(D270,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D270,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -13967,7 +13963,7 @@
         <v>601</v>
       </c>
       <c r="E271" t="str">
-        <f>VLOOKUP(D271,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D271,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F271" t="s">
@@ -13977,7 +13973,7 @@
         <v>1804</v>
       </c>
       <c r="H271" t="str">
-        <f>VLOOKUP(D271,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D271,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -13995,7 +13991,7 @@
         <v>1187</v>
       </c>
       <c r="E272" t="str">
-        <f>VLOOKUP(D272,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D272,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F272" t="s">
@@ -14005,7 +14001,7 @@
         <v>1822</v>
       </c>
       <c r="H272" t="str">
-        <f>VLOOKUP(D272,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D272,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -14023,7 +14019,7 @@
         <v>1084</v>
       </c>
       <c r="E273" t="str">
-        <f>VLOOKUP(D273,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D273,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F273" t="s">
@@ -14033,7 +14029,7 @@
         <v>1804</v>
       </c>
       <c r="H273" t="str">
-        <f>VLOOKUP(D273,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D273,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -14051,7 +14047,7 @@
         <v>1727</v>
       </c>
       <c r="E274" t="str">
-        <f>VLOOKUP(D274,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D274,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F274" t="s">
@@ -14061,7 +14057,7 @@
         <v>1822</v>
       </c>
       <c r="H274" t="str">
-        <f>VLOOKUP(D274,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D274,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -14079,7 +14075,7 @@
         <v>552</v>
       </c>
       <c r="E275" t="str">
-        <f>VLOOKUP(D275,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D275,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F275" t="s">
@@ -14088,9 +14084,9 @@
       <c r="G275" t="s">
         <v>1804</v>
       </c>
-      <c r="H275" t="str">
-        <f>VLOOKUP(D275,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H275" t="e">
+        <f>VLOOKUP(D275,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -14107,7 +14103,7 @@
         <v>552</v>
       </c>
       <c r="E276" t="str">
-        <f>VLOOKUP(D276,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D276,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F276" t="s">
@@ -14116,9 +14112,9 @@
       <c r="G276" t="s">
         <v>1804</v>
       </c>
-      <c r="H276" t="str">
-        <f>VLOOKUP(D276,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H276" t="e">
+        <f>VLOOKUP(D276,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -14135,7 +14131,7 @@
         <v>1633</v>
       </c>
       <c r="E277" t="str">
-        <f>VLOOKUP(D277,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D277,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F277" t="s">
@@ -14145,7 +14141,7 @@
         <v>1822</v>
       </c>
       <c r="H277" t="str">
-        <f>VLOOKUP(D277,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D277,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -14163,7 +14159,7 @@
         <v>601</v>
       </c>
       <c r="E278" t="str">
-        <f>VLOOKUP(D278,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D278,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F278" t="s">
@@ -14173,7 +14169,7 @@
         <v>1804</v>
       </c>
       <c r="H278" t="str">
-        <f>VLOOKUP(D278,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D278,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -14191,7 +14187,7 @@
         <v>1632</v>
       </c>
       <c r="E279" t="str">
-        <f>VLOOKUP(D279,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D279,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F279" t="s">
@@ -14201,7 +14197,7 @@
         <v>1804</v>
       </c>
       <c r="H279" t="str">
-        <f>VLOOKUP(D279,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D279,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -14219,7 +14215,7 @@
         <v>1084</v>
       </c>
       <c r="E280" t="str">
-        <f>VLOOKUP(D280,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D280,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F280" t="s">
@@ -14229,7 +14225,7 @@
         <v>1804</v>
       </c>
       <c r="H280" t="str">
-        <f>VLOOKUP(D280,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D280,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -14247,7 +14243,7 @@
         <v>599</v>
       </c>
       <c r="E281" t="str">
-        <f>VLOOKUP(D281,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D281,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F281" t="s">
@@ -14257,7 +14253,7 @@
         <v>1804</v>
       </c>
       <c r="H281" t="str">
-        <f>VLOOKUP(D281,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D281,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -14275,7 +14271,7 @@
         <v>552</v>
       </c>
       <c r="E282" t="str">
-        <f>VLOOKUP(D282,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D282,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F282" t="s">
@@ -14284,9 +14280,9 @@
       <c r="G282" t="s">
         <v>1804</v>
       </c>
-      <c r="H282" t="str">
-        <f>VLOOKUP(D282,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H282" t="e">
+        <f>VLOOKUP(D282,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -14303,7 +14299,7 @@
         <v>599</v>
       </c>
       <c r="E283" t="str">
-        <f>VLOOKUP(D283,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D283,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F283" t="s">
@@ -14313,7 +14309,7 @@
         <v>1804</v>
       </c>
       <c r="H283" t="str">
-        <f>VLOOKUP(D283,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D283,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -14331,7 +14327,7 @@
         <v>1731</v>
       </c>
       <c r="E284" t="str">
-        <f>VLOOKUP(D284,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D284,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F284" t="s">
@@ -14341,7 +14337,7 @@
         <v>1804</v>
       </c>
       <c r="H284" t="str">
-        <f>VLOOKUP(D284,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D284,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -14359,7 +14355,7 @@
         <v>1731</v>
       </c>
       <c r="E285" t="str">
-        <f>VLOOKUP(D285,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D285,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F285" t="s">
@@ -14369,7 +14365,7 @@
         <v>1804</v>
       </c>
       <c r="H285" t="str">
-        <f>VLOOKUP(D285,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D285,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -14387,7 +14383,7 @@
         <v>552</v>
       </c>
       <c r="E286" t="str">
-        <f>VLOOKUP(D286,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D286,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F286" t="s">
@@ -14396,9 +14392,9 @@
       <c r="G286" t="s">
         <v>1822</v>
       </c>
-      <c r="H286" t="str">
-        <f>VLOOKUP(D286,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H286" t="e">
+        <f>VLOOKUP(D286,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -14415,7 +14411,7 @@
         <v>1073</v>
       </c>
       <c r="E287" t="str">
-        <f>VLOOKUP(D287,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D287,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F287" t="s">
@@ -14425,7 +14421,7 @@
         <v>1822</v>
       </c>
       <c r="H287" t="str">
-        <f>VLOOKUP(D287,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D287,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -14443,7 +14439,7 @@
         <v>1628</v>
       </c>
       <c r="E288" t="str">
-        <f>VLOOKUP(D288,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D288,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F288" t="s">
@@ -14453,7 +14449,7 @@
         <v>1822</v>
       </c>
       <c r="H288" t="str">
-        <f>VLOOKUP(D288,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D288,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -14471,7 +14467,7 @@
         <v>942</v>
       </c>
       <c r="E289" t="str">
-        <f>VLOOKUP(D289,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D289,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F289" t="s">
@@ -14481,7 +14477,7 @@
         <v>1804</v>
       </c>
       <c r="H289" t="str">
-        <f>VLOOKUP(D289,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D289,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -14499,7 +14495,7 @@
         <v>1727</v>
       </c>
       <c r="E290" t="str">
-        <f>VLOOKUP(D290,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D290,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F290" t="s">
@@ -14509,7 +14505,7 @@
         <v>1804</v>
       </c>
       <c r="H290" t="str">
-        <f>VLOOKUP(D290,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D290,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -14527,7 +14523,7 @@
         <v>832</v>
       </c>
       <c r="E291" t="str">
-        <f>VLOOKUP(D291,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D291,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F291" t="s">
@@ -14537,7 +14533,7 @@
         <v>1804</v>
       </c>
       <c r="H291" t="str">
-        <f>VLOOKUP(D291,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D291,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -14555,7 +14551,7 @@
         <v>1423</v>
       </c>
       <c r="E292" t="str">
-        <f>VLOOKUP(D292,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D292,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F292" t="s">
@@ -14565,7 +14561,7 @@
         <v>1804</v>
       </c>
       <c r="H292" t="str">
-        <f>VLOOKUP(D292,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D292,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -14583,7 +14579,7 @@
         <v>1187</v>
       </c>
       <c r="E293" t="str">
-        <f>VLOOKUP(D293,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D293,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F293" t="s">
@@ -14593,7 +14589,7 @@
         <v>1804</v>
       </c>
       <c r="H293" t="str">
-        <f>VLOOKUP(D293,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D293,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -14611,7 +14607,7 @@
         <v>601</v>
       </c>
       <c r="E294" t="str">
-        <f>VLOOKUP(D294,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D294,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F294" t="s">
@@ -14621,7 +14617,7 @@
         <v>1804</v>
       </c>
       <c r="H294" t="str">
-        <f>VLOOKUP(D294,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D294,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -14639,7 +14635,7 @@
         <v>1630</v>
       </c>
       <c r="E295" t="str">
-        <f>VLOOKUP(D295,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D295,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F295" t="s">
@@ -14649,7 +14645,7 @@
         <v>1804</v>
       </c>
       <c r="H295" t="str">
-        <f>VLOOKUP(D295,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D295,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -14667,7 +14663,7 @@
         <v>552</v>
       </c>
       <c r="E296" t="str">
-        <f>VLOOKUP(D296,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D296,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F296" t="s">
@@ -14676,9 +14672,9 @@
       <c r="G296" t="s">
         <v>1804</v>
       </c>
-      <c r="H296" t="str">
-        <f>VLOOKUP(D296,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H296" t="e">
+        <f>VLOOKUP(D296,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -14695,7 +14691,7 @@
         <v>804</v>
       </c>
       <c r="E297" t="str">
-        <f>VLOOKUP(D297,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D297,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F297" t="s">
@@ -14704,9 +14700,9 @@
       <c r="G297" t="s">
         <v>1822</v>
       </c>
-      <c r="H297" t="str">
-        <f>VLOOKUP(D297,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H297" t="e">
+        <f>VLOOKUP(D297,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -14723,7 +14719,7 @@
         <v>552</v>
       </c>
       <c r="E298" t="str">
-        <f>VLOOKUP(D298,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D298,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F298" t="s">
@@ -14732,9 +14728,9 @@
       <c r="G298" t="s">
         <v>1822</v>
       </c>
-      <c r="H298" t="str">
-        <f>VLOOKUP(D298,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H298" t="e">
+        <f>VLOOKUP(D298,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -14751,7 +14747,7 @@
         <v>599</v>
       </c>
       <c r="E299" t="str">
-        <f>VLOOKUP(D299,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D299,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F299" t="s">
@@ -14761,7 +14757,7 @@
         <v>1804</v>
       </c>
       <c r="H299" t="str">
-        <f>VLOOKUP(D299,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D299,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -14779,7 +14775,7 @@
         <v>601</v>
       </c>
       <c r="E300" t="str">
-        <f>VLOOKUP(D300,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D300,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F300" t="s">
@@ -14789,7 +14785,7 @@
         <v>1804</v>
       </c>
       <c r="H300" t="str">
-        <f>VLOOKUP(D300,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D300,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -14807,7 +14803,7 @@
         <v>594</v>
       </c>
       <c r="E301" t="str">
-        <f>VLOOKUP(D301,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D301,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F301" t="s">
@@ -14817,7 +14813,7 @@
         <v>1804</v>
       </c>
       <c r="H301" t="str">
-        <f>VLOOKUP(D301,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D301,name_map!$A$4:$C$24,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
     </row>
@@ -14835,7 +14831,7 @@
         <v>601</v>
       </c>
       <c r="E302" t="str">
-        <f>VLOOKUP(D302,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D302,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F302" t="s">
@@ -14845,7 +14841,7 @@
         <v>1804</v>
       </c>
       <c r="H302" t="str">
-        <f>VLOOKUP(D302,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D302,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -14863,7 +14859,7 @@
         <v>601</v>
       </c>
       <c r="E303" t="str">
-        <f>VLOOKUP(D303,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D303,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F303" t="s">
@@ -14873,7 +14869,7 @@
         <v>1804</v>
       </c>
       <c r="H303" t="str">
-        <f>VLOOKUP(D303,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D303,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -14891,7 +14887,7 @@
         <v>1187</v>
       </c>
       <c r="E304" t="str">
-        <f>VLOOKUP(D304,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D304,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F304" t="s">
@@ -14901,7 +14897,7 @@
         <v>1804</v>
       </c>
       <c r="H304" t="str">
-        <f>VLOOKUP(D304,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D304,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -14919,7 +14915,7 @@
         <v>1423</v>
       </c>
       <c r="E305" t="str">
-        <f>VLOOKUP(D305,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D305,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F305" t="s">
@@ -14929,7 +14925,7 @@
         <v>1822</v>
       </c>
       <c r="H305" t="str">
-        <f>VLOOKUP(D305,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D305,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -14947,7 +14943,7 @@
         <v>1084</v>
       </c>
       <c r="E306" t="str">
-        <f>VLOOKUP(D306,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D306,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F306" t="s">
@@ -14957,7 +14953,7 @@
         <v>1804</v>
       </c>
       <c r="H306" t="str">
-        <f>VLOOKUP(D306,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D306,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -14975,7 +14971,7 @@
         <v>1084</v>
       </c>
       <c r="E307" t="str">
-        <f>VLOOKUP(D307,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D307,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F307" t="s">
@@ -14985,7 +14981,7 @@
         <v>1804</v>
       </c>
       <c r="H307" t="str">
-        <f>VLOOKUP(D307,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D307,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -15003,7 +14999,7 @@
         <v>1084</v>
       </c>
       <c r="E308" t="str">
-        <f>VLOOKUP(D308,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D308,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F308" t="s">
@@ -15013,7 +15009,7 @@
         <v>1804</v>
       </c>
       <c r="H308" t="str">
-        <f>VLOOKUP(D308,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D308,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -15031,7 +15027,7 @@
         <v>1073</v>
       </c>
       <c r="E309" t="str">
-        <f>VLOOKUP(D309,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D309,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F309" t="s">
@@ -15041,7 +15037,7 @@
         <v>1804</v>
       </c>
       <c r="H309" t="str">
-        <f>VLOOKUP(D309,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D309,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -15059,7 +15055,7 @@
         <v>1084</v>
       </c>
       <c r="E310" t="str">
-        <f>VLOOKUP(D310,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D310,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F310" t="s">
@@ -15069,7 +15065,7 @@
         <v>1804</v>
       </c>
       <c r="H310" t="str">
-        <f>VLOOKUP(D310,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D310,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -15087,7 +15083,7 @@
         <v>880</v>
       </c>
       <c r="E311" t="str">
-        <f>VLOOKUP(D311,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D311,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F311" t="s">
@@ -15097,7 +15093,7 @@
         <v>1804</v>
       </c>
       <c r="H311" t="str">
-        <f>VLOOKUP(D311,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D311,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -15115,7 +15111,7 @@
         <v>1727</v>
       </c>
       <c r="E312" t="str">
-        <f>VLOOKUP(D312,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D312,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F312" t="s">
@@ -15125,7 +15121,7 @@
         <v>1822</v>
       </c>
       <c r="H312" t="str">
-        <f>VLOOKUP(D312,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D312,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -15143,7 +15139,7 @@
         <v>601</v>
       </c>
       <c r="E313" t="str">
-        <f>VLOOKUP(D313,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D313,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F313" t="s">
@@ -15153,7 +15149,7 @@
         <v>1804</v>
       </c>
       <c r="H313" t="str">
-        <f>VLOOKUP(D313,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D313,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -15171,7 +15167,7 @@
         <v>601</v>
       </c>
       <c r="E314" t="str">
-        <f>VLOOKUP(D314,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D314,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F314" t="s">
@@ -15181,7 +15177,7 @@
         <v>1804</v>
       </c>
       <c r="H314" t="str">
-        <f>VLOOKUP(D314,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D314,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -15199,7 +15195,7 @@
         <v>880</v>
       </c>
       <c r="E315" t="str">
-        <f>VLOOKUP(D315,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D315,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F315" t="s">
@@ -15209,7 +15205,7 @@
         <v>1804</v>
       </c>
       <c r="H315" t="str">
-        <f>VLOOKUP(D315,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D315,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -15227,7 +15223,7 @@
         <v>1633</v>
       </c>
       <c r="E316" t="str">
-        <f>VLOOKUP(D316,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D316,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F316" t="s">
@@ -15237,7 +15233,7 @@
         <v>1804</v>
       </c>
       <c r="H316" t="str">
-        <f>VLOOKUP(D316,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D316,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -15255,7 +15251,7 @@
         <v>804</v>
       </c>
       <c r="E317" t="str">
-        <f>VLOOKUP(D317,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D317,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F317" t="s">
@@ -15264,9 +15260,9 @@
       <c r="G317" t="s">
         <v>1804</v>
       </c>
-      <c r="H317" t="str">
-        <f>VLOOKUP(D317,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H317" t="e">
+        <f>VLOOKUP(D317,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -15283,7 +15279,7 @@
         <v>1084</v>
       </c>
       <c r="E318" t="str">
-        <f>VLOOKUP(D318,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D318,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F318" t="s">
@@ -15293,7 +15289,7 @@
         <v>1804</v>
       </c>
       <c r="H318" t="str">
-        <f>VLOOKUP(D318,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D318,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -15311,7 +15307,7 @@
         <v>1073</v>
       </c>
       <c r="E319" t="str">
-        <f>VLOOKUP(D319,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D319,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F319" t="s">
@@ -15321,7 +15317,7 @@
         <v>1804</v>
       </c>
       <c r="H319" t="str">
-        <f>VLOOKUP(D319,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D319,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -15339,7 +15335,7 @@
         <v>1628</v>
       </c>
       <c r="E320" t="str">
-        <f>VLOOKUP(D320,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D320,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F320" t="s">
@@ -15349,7 +15345,7 @@
         <v>1822</v>
       </c>
       <c r="H320" t="str">
-        <f>VLOOKUP(D320,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D320,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -15367,7 +15363,7 @@
         <v>1084</v>
       </c>
       <c r="E321" t="str">
-        <f>VLOOKUP(D321,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D321,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F321" t="s">
@@ -15377,7 +15373,7 @@
         <v>1804</v>
       </c>
       <c r="H321" t="str">
-        <f>VLOOKUP(D321,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D321,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -15395,7 +15391,7 @@
         <v>1187</v>
       </c>
       <c r="E322" t="str">
-        <f>VLOOKUP(D322,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D322,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F322" t="s">
@@ -15405,7 +15401,7 @@
         <v>1804</v>
       </c>
       <c r="H322" t="str">
-        <f>VLOOKUP(D322,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D322,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -15423,7 +15419,7 @@
         <v>552</v>
       </c>
       <c r="E323" t="str">
-        <f>VLOOKUP(D323,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D323,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F323" t="s">
@@ -15432,9 +15428,9 @@
       <c r="G323" t="s">
         <v>1804</v>
       </c>
-      <c r="H323" t="str">
-        <f>VLOOKUP(D323,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H323" t="e">
+        <f>VLOOKUP(D323,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -15451,7 +15447,7 @@
         <v>1073</v>
       </c>
       <c r="E324" t="str">
-        <f>VLOOKUP(D324,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D324,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F324" t="s">
@@ -15461,7 +15457,7 @@
         <v>1804</v>
       </c>
       <c r="H324" t="str">
-        <f>VLOOKUP(D324,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D324,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -15479,7 +15475,7 @@
         <v>552</v>
       </c>
       <c r="E325" t="str">
-        <f>VLOOKUP(D325,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D325,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F325" t="s">
@@ -15488,9 +15484,9 @@
       <c r="G325" t="s">
         <v>1822</v>
       </c>
-      <c r="H325" t="str">
-        <f>VLOOKUP(D325,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H325" t="e">
+        <f>VLOOKUP(D325,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
@@ -15507,7 +15503,7 @@
         <v>1073</v>
       </c>
       <c r="E326" t="str">
-        <f>VLOOKUP(D326,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D326,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F326" t="s">
@@ -15517,7 +15513,7 @@
         <v>1804</v>
       </c>
       <c r="H326" t="str">
-        <f>VLOOKUP(D326,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D326,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -15535,7 +15531,7 @@
         <v>1073</v>
       </c>
       <c r="E327" t="str">
-        <f>VLOOKUP(D327,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D327,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F327" t="s">
@@ -15545,7 +15541,7 @@
         <v>1822</v>
       </c>
       <c r="H327" t="str">
-        <f>VLOOKUP(D327,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D327,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -15563,7 +15559,7 @@
         <v>1073</v>
       </c>
       <c r="E328" t="str">
-        <f>VLOOKUP(D328,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D328,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F328" t="s">
@@ -15573,7 +15569,7 @@
         <v>1822</v>
       </c>
       <c r="H328" t="str">
-        <f>VLOOKUP(D328,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D328,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -15591,7 +15587,7 @@
         <v>601</v>
       </c>
       <c r="E329" t="str">
-        <f>VLOOKUP(D329,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D329,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F329" t="s">
@@ -15601,7 +15597,7 @@
         <v>1804</v>
       </c>
       <c r="H329" t="str">
-        <f>VLOOKUP(D329,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D329,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -15619,7 +15615,7 @@
         <v>594</v>
       </c>
       <c r="E330" t="str">
-        <f>VLOOKUP(D330,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D330,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F330" t="s">
@@ -15629,7 +15625,7 @@
         <v>1804</v>
       </c>
       <c r="H330" t="str">
-        <f>VLOOKUP(D330,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D330,name_map!$A$4:$C$24,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
     </row>
@@ -15647,7 +15643,7 @@
         <v>552</v>
       </c>
       <c r="E331" t="str">
-        <f>VLOOKUP(D331,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D331,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F331" t="s">
@@ -15656,9 +15652,9 @@
       <c r="G331" t="s">
         <v>1804</v>
       </c>
-      <c r="H331" t="str">
-        <f>VLOOKUP(D331,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H331" t="e">
+        <f>VLOOKUP(D331,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -15675,7 +15671,7 @@
         <v>1423</v>
       </c>
       <c r="E332" t="str">
-        <f>VLOOKUP(D332,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D332,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F332" t="s">
@@ -15685,7 +15681,7 @@
         <v>1804</v>
       </c>
       <c r="H332" t="str">
-        <f>VLOOKUP(D332,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D332,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -15703,7 +15699,7 @@
         <v>1073</v>
       </c>
       <c r="E333" t="str">
-        <f>VLOOKUP(D333,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D333,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F333" t="s">
@@ -15713,7 +15709,7 @@
         <v>1822</v>
       </c>
       <c r="H333" t="str">
-        <f>VLOOKUP(D333,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D333,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -15731,7 +15727,7 @@
         <v>1726</v>
       </c>
       <c r="E334" t="str">
-        <f>VLOOKUP(D334,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D334,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F334" t="s">
@@ -15741,7 +15737,7 @@
         <v>1822</v>
       </c>
       <c r="H334" t="str">
-        <f>VLOOKUP(D334,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D334,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -15759,7 +15755,7 @@
         <v>1073</v>
       </c>
       <c r="E335" t="str">
-        <f>VLOOKUP(D335,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D335,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F335" t="s">
@@ -15769,7 +15765,7 @@
         <v>1822</v>
       </c>
       <c r="H335" t="str">
-        <f>VLOOKUP(D335,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D335,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -15787,7 +15783,7 @@
         <v>1726</v>
       </c>
       <c r="E336" t="str">
-        <f>VLOOKUP(D336,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D336,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F336" t="s">
@@ -15797,7 +15793,7 @@
         <v>1804</v>
       </c>
       <c r="H336" t="str">
-        <f>VLOOKUP(D336,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D336,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -15815,7 +15811,7 @@
         <v>552</v>
       </c>
       <c r="E337" t="str">
-        <f>VLOOKUP(D337,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D337,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F337" t="s">
@@ -15824,9 +15820,9 @@
       <c r="G337" t="s">
         <v>1822</v>
       </c>
-      <c r="H337" t="str">
-        <f>VLOOKUP(D337,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H337" t="e">
+        <f>VLOOKUP(D337,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -15843,7 +15839,7 @@
         <v>1187</v>
       </c>
       <c r="E338" t="str">
-        <f>VLOOKUP(D338,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D338,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F338" t="s">
@@ -15853,7 +15849,7 @@
         <v>1822</v>
       </c>
       <c r="H338" t="str">
-        <f>VLOOKUP(D338,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D338,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -15871,7 +15867,7 @@
         <v>552</v>
       </c>
       <c r="E339" t="str">
-        <f>VLOOKUP(D339,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D339,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F339" t="s">
@@ -15880,9 +15876,9 @@
       <c r="G339" t="s">
         <v>1804</v>
       </c>
-      <c r="H339" t="str">
-        <f>VLOOKUP(D339,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H339" t="e">
+        <f>VLOOKUP(D339,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
@@ -15899,7 +15895,7 @@
         <v>1187</v>
       </c>
       <c r="E340" t="str">
-        <f>VLOOKUP(D340,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D340,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F340" t="s">
@@ -15909,7 +15905,7 @@
         <v>1804</v>
       </c>
       <c r="H340" t="str">
-        <f>VLOOKUP(D340,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D340,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -15927,7 +15923,7 @@
         <v>1187</v>
       </c>
       <c r="E341" t="str">
-        <f>VLOOKUP(D341,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D341,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F341" t="s">
@@ -15937,7 +15933,7 @@
         <v>1804</v>
       </c>
       <c r="H341" t="str">
-        <f>VLOOKUP(D341,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D341,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -15955,7 +15951,7 @@
         <v>1084</v>
       </c>
       <c r="E342" t="str">
-        <f>VLOOKUP(D342,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D342,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F342" t="s">
@@ -15965,7 +15961,7 @@
         <v>1804</v>
       </c>
       <c r="H342" t="str">
-        <f>VLOOKUP(D342,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D342,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -15983,7 +15979,7 @@
         <v>552</v>
       </c>
       <c r="E343" t="str">
-        <f>VLOOKUP(D343,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D343,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F343" t="s">
@@ -15992,9 +15988,9 @@
       <c r="G343" t="s">
         <v>1804</v>
       </c>
-      <c r="H343" t="str">
-        <f>VLOOKUP(D343,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H343" t="e">
+        <f>VLOOKUP(D343,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
@@ -16011,7 +16007,7 @@
         <v>942</v>
       </c>
       <c r="E344" t="str">
-        <f>VLOOKUP(D344,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D344,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F344" t="s">
@@ -16021,7 +16017,7 @@
         <v>1804</v>
       </c>
       <c r="H344" t="str">
-        <f>VLOOKUP(D344,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D344,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -16039,7 +16035,7 @@
         <v>601</v>
       </c>
       <c r="E345" t="str">
-        <f>VLOOKUP(D345,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D345,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F345" t="s">
@@ -16049,7 +16045,7 @@
         <v>1804</v>
       </c>
       <c r="H345" t="str">
-        <f>VLOOKUP(D345,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D345,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -16067,7 +16063,7 @@
         <v>1084</v>
       </c>
       <c r="E346" t="str">
-        <f>VLOOKUP(D346,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D346,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F346" t="s">
@@ -16077,7 +16073,7 @@
         <v>1804</v>
       </c>
       <c r="H346" t="str">
-        <f>VLOOKUP(D346,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D346,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -16095,7 +16091,7 @@
         <v>1423</v>
       </c>
       <c r="E347" t="str">
-        <f>VLOOKUP(D347,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D347,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F347" t="s">
@@ -16105,7 +16101,7 @@
         <v>1804</v>
       </c>
       <c r="H347" t="str">
-        <f>VLOOKUP(D347,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D347,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -16123,7 +16119,7 @@
         <v>1187</v>
       </c>
       <c r="E348" t="str">
-        <f>VLOOKUP(D348,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D348,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F348" t="s">
@@ -16133,7 +16129,7 @@
         <v>1804</v>
       </c>
       <c r="H348" t="str">
-        <f>VLOOKUP(D348,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D348,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16151,7 +16147,7 @@
         <v>942</v>
       </c>
       <c r="E349" t="str">
-        <f>VLOOKUP(D349,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D349,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F349" t="s">
@@ -16161,7 +16157,7 @@
         <v>1804</v>
       </c>
       <c r="H349" t="str">
-        <f>VLOOKUP(D349,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D349,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -16179,7 +16175,7 @@
         <v>524</v>
       </c>
       <c r="E350" t="str">
-        <f>VLOOKUP(D350,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D350,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F350" t="s">
@@ -16189,7 +16185,7 @@
         <v>1804</v>
       </c>
       <c r="H350" t="str">
-        <f>VLOOKUP(D350,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D350,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -16207,7 +16203,7 @@
         <v>880</v>
       </c>
       <c r="E351" t="str">
-        <f>VLOOKUP(D351,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D351,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F351" t="s">
@@ -16217,7 +16213,7 @@
         <v>1822</v>
       </c>
       <c r="H351" t="str">
-        <f>VLOOKUP(D351,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D351,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -16235,7 +16231,7 @@
         <v>1628</v>
       </c>
       <c r="E352" t="str">
-        <f>VLOOKUP(D352,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D352,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F352" t="s">
@@ -16245,7 +16241,7 @@
         <v>1822</v>
       </c>
       <c r="H352" t="str">
-        <f>VLOOKUP(D352,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D352,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -16263,7 +16259,7 @@
         <v>942</v>
       </c>
       <c r="E353" t="str">
-        <f>VLOOKUP(D353,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D353,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F353" t="s">
@@ -16273,7 +16269,7 @@
         <v>1804</v>
       </c>
       <c r="H353" t="str">
-        <f>VLOOKUP(D353,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D353,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -16291,7 +16287,7 @@
         <v>1084</v>
       </c>
       <c r="E354" t="str">
-        <f>VLOOKUP(D354,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D354,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F354" t="s">
@@ -16301,7 +16297,7 @@
         <v>1804</v>
       </c>
       <c r="H354" t="str">
-        <f>VLOOKUP(D354,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D354,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -16319,7 +16315,7 @@
         <v>1187</v>
       </c>
       <c r="E355" t="str">
-        <f>VLOOKUP(D355,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D355,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F355" t="s">
@@ -16329,7 +16325,7 @@
         <v>1804</v>
       </c>
       <c r="H355" t="str">
-        <f>VLOOKUP(D355,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D355,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16347,7 +16343,7 @@
         <v>1187</v>
       </c>
       <c r="E356" t="str">
-        <f>VLOOKUP(D356,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D356,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F356" t="s">
@@ -16357,7 +16353,7 @@
         <v>1804</v>
       </c>
       <c r="H356" t="str">
-        <f>VLOOKUP(D356,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D356,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16375,7 +16371,7 @@
         <v>1630</v>
       </c>
       <c r="E357" t="str">
-        <f>VLOOKUP(D357,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D357,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F357" t="s">
@@ -16385,7 +16381,7 @@
         <v>1804</v>
       </c>
       <c r="H357" t="str">
-        <f>VLOOKUP(D357,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D357,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -16403,7 +16399,7 @@
         <v>1630</v>
       </c>
       <c r="E358" t="str">
-        <f>VLOOKUP(D358,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D358,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F358" t="s">
@@ -16413,7 +16409,7 @@
         <v>1804</v>
       </c>
       <c r="H358" t="str">
-        <f>VLOOKUP(D358,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D358,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -16431,7 +16427,7 @@
         <v>552</v>
       </c>
       <c r="E359" t="str">
-        <f>VLOOKUP(D359,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D359,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F359" t="s">
@@ -16440,9 +16436,9 @@
       <c r="G359" t="s">
         <v>1822</v>
       </c>
-      <c r="H359" t="str">
-        <f>VLOOKUP(D359,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H359" t="e">
+        <f>VLOOKUP(D359,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -16459,7 +16455,7 @@
         <v>1187</v>
       </c>
       <c r="E360" t="str">
-        <f>VLOOKUP(D360,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D360,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F360" t="s">
@@ -16469,7 +16465,7 @@
         <v>1804</v>
       </c>
       <c r="H360" t="str">
-        <f>VLOOKUP(D360,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D360,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16487,7 +16483,7 @@
         <v>1187</v>
       </c>
       <c r="E361" t="str">
-        <f>VLOOKUP(D361,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D361,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F361" t="s">
@@ -16497,7 +16493,7 @@
         <v>1822</v>
       </c>
       <c r="H361" t="str">
-        <f>VLOOKUP(D361,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D361,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16515,7 +16511,7 @@
         <v>1187</v>
       </c>
       <c r="E362" t="str">
-        <f>VLOOKUP(D362,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D362,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F362" t="s">
@@ -16525,7 +16521,7 @@
         <v>1822</v>
       </c>
       <c r="H362" t="str">
-        <f>VLOOKUP(D362,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D362,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16543,7 +16539,7 @@
         <v>1187</v>
       </c>
       <c r="E363" t="str">
-        <f>VLOOKUP(D363,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D363,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F363" t="s">
@@ -16553,7 +16549,7 @@
         <v>1804</v>
       </c>
       <c r="H363" t="str">
-        <f>VLOOKUP(D363,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D363,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16571,7 +16567,7 @@
         <v>1423</v>
       </c>
       <c r="E364" t="str">
-        <f>VLOOKUP(D364,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D364,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F364" t="s">
@@ -16581,7 +16577,7 @@
         <v>1804</v>
       </c>
       <c r="H364" t="str">
-        <f>VLOOKUP(D364,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D364,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -16599,7 +16595,7 @@
         <v>1187</v>
       </c>
       <c r="E365" t="str">
-        <f>VLOOKUP(D365,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D365,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F365" t="s">
@@ -16609,7 +16605,7 @@
         <v>1822</v>
       </c>
       <c r="H365" t="str">
-        <f>VLOOKUP(D365,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D365,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16627,7 +16623,7 @@
         <v>1187</v>
       </c>
       <c r="E366" t="str">
-        <f>VLOOKUP(D366,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D366,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F366" t="s">
@@ -16637,7 +16633,7 @@
         <v>1822</v>
       </c>
       <c r="H366" t="str">
-        <f>VLOOKUP(D366,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D366,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -16655,7 +16651,7 @@
         <v>599</v>
       </c>
       <c r="E367" t="str">
-        <f>VLOOKUP(D367,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D367,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F367" t="s">
@@ -16665,7 +16661,7 @@
         <v>1804</v>
       </c>
       <c r="H367" t="str">
-        <f>VLOOKUP(D367,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D367,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -16683,7 +16679,7 @@
         <v>880</v>
       </c>
       <c r="E368" t="str">
-        <f>VLOOKUP(D368,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D368,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F368" t="s">
@@ -16693,7 +16689,7 @@
         <v>1804</v>
       </c>
       <c r="H368" t="str">
-        <f>VLOOKUP(D368,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D368,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -16711,7 +16707,7 @@
         <v>1423</v>
       </c>
       <c r="E369" t="str">
-        <f>VLOOKUP(D369,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D369,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F369" t="s">
@@ -16721,7 +16717,7 @@
         <v>1822</v>
       </c>
       <c r="H369" t="str">
-        <f>VLOOKUP(D369,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D369,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -16739,7 +16735,7 @@
         <v>552</v>
       </c>
       <c r="E370" t="str">
-        <f>VLOOKUP(D370,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D370,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F370" t="s">
@@ -16748,9 +16744,9 @@
       <c r="G370" t="s">
         <v>1804</v>
       </c>
-      <c r="H370" t="str">
-        <f>VLOOKUP(D370,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H370" t="e">
+        <f>VLOOKUP(D370,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -16767,7 +16763,7 @@
         <v>524</v>
       </c>
       <c r="E371" t="str">
-        <f>VLOOKUP(D371,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D371,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F371" t="s">
@@ -16777,7 +16773,7 @@
         <v>1822</v>
       </c>
       <c r="H371" t="str">
-        <f>VLOOKUP(D371,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D371,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -16795,7 +16791,7 @@
         <v>1633</v>
       </c>
       <c r="E372" t="str">
-        <f>VLOOKUP(D372,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D372,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F372" t="s">
@@ -16805,7 +16801,7 @@
         <v>1804</v>
       </c>
       <c r="H372" t="str">
-        <f>VLOOKUP(D372,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D372,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -16823,7 +16819,7 @@
         <v>599</v>
       </c>
       <c r="E373" t="str">
-        <f>VLOOKUP(D373,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D373,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F373" t="s">
@@ -16833,7 +16829,7 @@
         <v>1804</v>
       </c>
       <c r="H373" t="str">
-        <f>VLOOKUP(D373,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D373,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -16851,7 +16847,7 @@
         <v>880</v>
       </c>
       <c r="E374" t="str">
-        <f>VLOOKUP(D374,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D374,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F374" t="s">
@@ -16861,7 +16857,7 @@
         <v>1804</v>
       </c>
       <c r="H374" t="str">
-        <f>VLOOKUP(D374,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D374,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -16879,7 +16875,7 @@
         <v>1628</v>
       </c>
       <c r="E375" t="str">
-        <f>VLOOKUP(D375,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D375,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F375" t="s">
@@ -16889,7 +16885,7 @@
         <v>1822</v>
       </c>
       <c r="H375" t="str">
-        <f>VLOOKUP(D375,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D375,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -16907,7 +16903,7 @@
         <v>552</v>
       </c>
       <c r="E376" t="str">
-        <f>VLOOKUP(D376,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D376,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F376" t="s">
@@ -16916,9 +16912,9 @@
       <c r="G376" t="s">
         <v>1804</v>
       </c>
-      <c r="H376" t="str">
-        <f>VLOOKUP(D376,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H376" t="e">
+        <f>VLOOKUP(D376,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -16935,7 +16931,7 @@
         <v>601</v>
       </c>
       <c r="E377" t="str">
-        <f>VLOOKUP(D377,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D377,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F377" t="s">
@@ -16945,7 +16941,7 @@
         <v>1804</v>
       </c>
       <c r="H377" t="str">
-        <f>VLOOKUP(D377,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D377,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -16963,7 +16959,7 @@
         <v>942</v>
       </c>
       <c r="E378" t="str">
-        <f>VLOOKUP(D378,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D378,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F378" t="s">
@@ -16973,7 +16969,7 @@
         <v>1822</v>
       </c>
       <c r="H378" t="str">
-        <f>VLOOKUP(D378,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D378,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -16991,7 +16987,7 @@
         <v>552</v>
       </c>
       <c r="E379" t="str">
-        <f>VLOOKUP(D379,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D379,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F379" t="s">
@@ -17000,9 +16996,9 @@
       <c r="G379" t="s">
         <v>1822</v>
       </c>
-      <c r="H379" t="str">
-        <f>VLOOKUP(D379,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H379" t="e">
+        <f>VLOOKUP(D379,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -17019,7 +17015,7 @@
         <v>1726</v>
       </c>
       <c r="E380" t="str">
-        <f>VLOOKUP(D380,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D380,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F380" t="s">
@@ -17029,7 +17025,7 @@
         <v>1804</v>
       </c>
       <c r="H380" t="str">
-        <f>VLOOKUP(D380,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D380,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -17047,7 +17043,7 @@
         <v>942</v>
       </c>
       <c r="E381" t="str">
-        <f>VLOOKUP(D381,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D381,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F381" t="s">
@@ -17057,7 +17053,7 @@
         <v>1804</v>
       </c>
       <c r="H381" t="str">
-        <f>VLOOKUP(D381,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D381,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -17075,7 +17071,7 @@
         <v>1727</v>
       </c>
       <c r="E382" t="str">
-        <f>VLOOKUP(D382,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D382,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F382" t="s">
@@ -17085,7 +17081,7 @@
         <v>1804</v>
       </c>
       <c r="H382" t="str">
-        <f>VLOOKUP(D382,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D382,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -17103,7 +17099,7 @@
         <v>524</v>
       </c>
       <c r="E383" t="str">
-        <f>VLOOKUP(D383,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D383,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F383" t="s">
@@ -17113,7 +17109,7 @@
         <v>1804</v>
       </c>
       <c r="H383" t="str">
-        <f>VLOOKUP(D383,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D383,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -17131,7 +17127,7 @@
         <v>1630</v>
       </c>
       <c r="E384" t="str">
-        <f>VLOOKUP(D384,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D384,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F384" t="s">
@@ -17141,7 +17137,7 @@
         <v>1804</v>
       </c>
       <c r="H384" t="str">
-        <f>VLOOKUP(D384,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D384,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -17159,7 +17155,7 @@
         <v>524</v>
       </c>
       <c r="E385" t="str">
-        <f>VLOOKUP(D385,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D385,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F385" t="s">
@@ -17169,7 +17165,7 @@
         <v>1804</v>
       </c>
       <c r="H385" t="str">
-        <f>VLOOKUP(D385,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D385,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -17187,7 +17183,7 @@
         <v>599</v>
       </c>
       <c r="E386" t="str">
-        <f>VLOOKUP(D386,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D386,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F386" t="s">
@@ -17197,7 +17193,7 @@
         <v>1804</v>
       </c>
       <c r="H386" t="str">
-        <f>VLOOKUP(D386,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D386,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -17215,7 +17211,7 @@
         <v>552</v>
       </c>
       <c r="E387" t="str">
-        <f>VLOOKUP(D387,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D387,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F387" t="s">
@@ -17224,9 +17220,9 @@
       <c r="G387" t="s">
         <v>1804</v>
       </c>
-      <c r="H387" t="str">
-        <f>VLOOKUP(D387,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H387" t="e">
+        <f>VLOOKUP(D387,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -17243,7 +17239,7 @@
         <v>1628</v>
       </c>
       <c r="E388" t="str">
-        <f>VLOOKUP(D388,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D388,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F388" t="s">
@@ -17253,7 +17249,7 @@
         <v>1822</v>
       </c>
       <c r="H388" t="str">
-        <f>VLOOKUP(D388,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D388,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -17271,7 +17267,7 @@
         <v>524</v>
       </c>
       <c r="E389" t="str">
-        <f>VLOOKUP(D389,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D389,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F389" t="s">
@@ -17281,7 +17277,7 @@
         <v>1804</v>
       </c>
       <c r="H389" t="str">
-        <f>VLOOKUP(D389,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D389,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -17299,7 +17295,7 @@
         <v>599</v>
       </c>
       <c r="E390" t="str">
-        <f>VLOOKUP(D390,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D390,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F390" t="s">
@@ -17309,7 +17305,7 @@
         <v>1804</v>
       </c>
       <c r="H390" t="str">
-        <f>VLOOKUP(D390,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D390,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -17327,7 +17323,7 @@
         <v>1731</v>
       </c>
       <c r="E391" t="str">
-        <f>VLOOKUP(D391,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D391,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F391" t="s">
@@ -17337,7 +17333,7 @@
         <v>1804</v>
       </c>
       <c r="H391" t="str">
-        <f>VLOOKUP(D391,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D391,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -17355,7 +17351,7 @@
         <v>880</v>
       </c>
       <c r="E392" t="str">
-        <f>VLOOKUP(D392,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D392,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F392" t="s">
@@ -17365,7 +17361,7 @@
         <v>1822</v>
       </c>
       <c r="H392" t="str">
-        <f>VLOOKUP(D392,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D392,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -17383,7 +17379,7 @@
         <v>880</v>
       </c>
       <c r="E393" t="str">
-        <f>VLOOKUP(D393,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D393,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F393" t="s">
@@ -17393,7 +17389,7 @@
         <v>1804</v>
       </c>
       <c r="H393" t="str">
-        <f>VLOOKUP(D393,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D393,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -17411,7 +17407,7 @@
         <v>1187</v>
       </c>
       <c r="E394" t="str">
-        <f>VLOOKUP(D394,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D394,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F394" t="s">
@@ -17421,7 +17417,7 @@
         <v>1804</v>
       </c>
       <c r="H394" t="str">
-        <f>VLOOKUP(D394,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D394,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -17439,7 +17435,7 @@
         <v>1633</v>
       </c>
       <c r="E395" t="str">
-        <f>VLOOKUP(D395,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D395,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F395" t="s">
@@ -17449,7 +17445,7 @@
         <v>1804</v>
       </c>
       <c r="H395" t="str">
-        <f>VLOOKUP(D395,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D395,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -17467,7 +17463,7 @@
         <v>1632</v>
       </c>
       <c r="E396" t="str">
-        <f>VLOOKUP(D396,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D396,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F396" t="s">
@@ -17477,7 +17473,7 @@
         <v>1804</v>
       </c>
       <c r="H396" t="str">
-        <f>VLOOKUP(D396,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D396,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -17495,7 +17491,7 @@
         <v>1187</v>
       </c>
       <c r="E397" t="str">
-        <f>VLOOKUP(D397,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D397,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F397" t="s">
@@ -17505,7 +17501,7 @@
         <v>1804</v>
       </c>
       <c r="H397" t="str">
-        <f>VLOOKUP(D397,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D397,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -17523,7 +17519,7 @@
         <v>942</v>
       </c>
       <c r="E398" t="str">
-        <f>VLOOKUP(D398,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D398,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F398" t="s">
@@ -17533,7 +17529,7 @@
         <v>1804</v>
       </c>
       <c r="H398" t="str">
-        <f>VLOOKUP(D398,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D398,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -17551,7 +17547,7 @@
         <v>1633</v>
       </c>
       <c r="E399" t="str">
-        <f>VLOOKUP(D399,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D399,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F399" t="s">
@@ -17561,7 +17557,7 @@
         <v>1804</v>
       </c>
       <c r="H399" t="str">
-        <f>VLOOKUP(D399,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D399,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -17579,7 +17575,7 @@
         <v>599</v>
       </c>
       <c r="E400" t="str">
-        <f>VLOOKUP(D400,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D400,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F400" t="s">
@@ -17589,7 +17585,7 @@
         <v>1804</v>
       </c>
       <c r="H400" t="str">
-        <f>VLOOKUP(D400,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D400,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -17607,7 +17603,7 @@
         <v>1423</v>
       </c>
       <c r="E401" t="str">
-        <f>VLOOKUP(D401,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D401,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F401" t="s">
@@ -17617,7 +17613,7 @@
         <v>1804</v>
       </c>
       <c r="H401" t="str">
-        <f>VLOOKUP(D401,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D401,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -17635,7 +17631,7 @@
         <v>552</v>
       </c>
       <c r="E402" t="str">
-        <f>VLOOKUP(D402,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D402,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F402" t="s">
@@ -17644,9 +17640,9 @@
       <c r="G402" t="s">
         <v>1804</v>
       </c>
-      <c r="H402" t="str">
-        <f>VLOOKUP(D402,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H402" t="e">
+        <f>VLOOKUP(D402,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -17663,7 +17659,7 @@
         <v>1628</v>
       </c>
       <c r="E403" t="str">
-        <f>VLOOKUP(D403,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D403,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F403" t="s">
@@ -17673,7 +17669,7 @@
         <v>1822</v>
       </c>
       <c r="H403" t="str">
-        <f>VLOOKUP(D403,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D403,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -17691,7 +17687,7 @@
         <v>1726</v>
       </c>
       <c r="E404" t="str">
-        <f>VLOOKUP(D404,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D404,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F404" t="s">
@@ -17701,7 +17697,7 @@
         <v>1804</v>
       </c>
       <c r="H404" t="str">
-        <f>VLOOKUP(D404,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D404,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -17719,7 +17715,7 @@
         <v>1724</v>
       </c>
       <c r="E405" t="str">
-        <f>VLOOKUP(D405,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D405,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F405" t="s">
@@ -17729,7 +17725,7 @@
         <v>1804</v>
       </c>
       <c r="H405" t="str">
-        <f>VLOOKUP(D405,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D405,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -17747,7 +17743,7 @@
         <v>1726</v>
       </c>
       <c r="E406" t="str">
-        <f>VLOOKUP(D406,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D406,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F406" t="s">
@@ -17757,7 +17753,7 @@
         <v>1804</v>
       </c>
       <c r="H406" t="str">
-        <f>VLOOKUP(D406,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D406,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -17775,7 +17771,7 @@
         <v>552</v>
       </c>
       <c r="E407" t="str">
-        <f>VLOOKUP(D407,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D407,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F407" t="s">
@@ -17784,9 +17780,9 @@
       <c r="G407" t="s">
         <v>1822</v>
       </c>
-      <c r="H407" t="str">
-        <f>VLOOKUP(D407,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H407" t="e">
+        <f>VLOOKUP(D407,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -17803,7 +17799,7 @@
         <v>1073</v>
       </c>
       <c r="E408" t="str">
-        <f>VLOOKUP(D408,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D408,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F408" t="s">
@@ -17813,7 +17809,7 @@
         <v>1822</v>
       </c>
       <c r="H408" t="str">
-        <f>VLOOKUP(D408,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D408,name_map!$A$4:$C$24,3,0)</f>
         <v>Dầu khí</v>
       </c>
     </row>
@@ -17831,7 +17827,7 @@
         <v>552</v>
       </c>
       <c r="E409" t="str">
-        <f>VLOOKUP(D409,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D409,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F409" t="s">
@@ -17840,9 +17836,9 @@
       <c r="G409" t="s">
         <v>1804</v>
       </c>
-      <c r="H409" t="str">
-        <f>VLOOKUP(D409,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H409" t="e">
+        <f>VLOOKUP(D409,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -17859,7 +17855,7 @@
         <v>601</v>
       </c>
       <c r="E410" t="str">
-        <f>VLOOKUP(D410,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D410,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F410" t="s">
@@ -17869,7 +17865,7 @@
         <v>1804</v>
       </c>
       <c r="H410" t="str">
-        <f>VLOOKUP(D410,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D410,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -17887,7 +17883,7 @@
         <v>1633</v>
       </c>
       <c r="E411" t="str">
-        <f>VLOOKUP(D411,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D411,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F411" t="s">
@@ -17897,7 +17893,7 @@
         <v>1804</v>
       </c>
       <c r="H411" t="str">
-        <f>VLOOKUP(D411,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D411,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -17915,7 +17911,7 @@
         <v>1084</v>
       </c>
       <c r="E412" t="str">
-        <f>VLOOKUP(D412,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D412,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F412" t="s">
@@ -17925,7 +17921,7 @@
         <v>1804</v>
       </c>
       <c r="H412" t="str">
-        <f>VLOOKUP(D412,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D412,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -17943,7 +17939,7 @@
         <v>880</v>
       </c>
       <c r="E413" t="str">
-        <f>VLOOKUP(D413,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D413,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F413" t="s">
@@ -17953,7 +17949,7 @@
         <v>1804</v>
       </c>
       <c r="H413" t="str">
-        <f>VLOOKUP(D413,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D413,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -17971,7 +17967,7 @@
         <v>552</v>
       </c>
       <c r="E414" t="str">
-        <f>VLOOKUP(D414,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D414,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F414" t="s">
@@ -17980,9 +17976,9 @@
       <c r="G414" t="s">
         <v>1804</v>
       </c>
-      <c r="H414" t="str">
-        <f>VLOOKUP(D414,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H414" t="e">
+        <f>VLOOKUP(D414,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -17999,7 +17995,7 @@
         <v>1629</v>
       </c>
       <c r="E415" t="str">
-        <f>VLOOKUP(D415,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D415,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F415" t="s">
@@ -18009,7 +18005,7 @@
         <v>1804</v>
       </c>
       <c r="H415" t="str">
-        <f>VLOOKUP(D415,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D415,name_map!$A$4:$C$24,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
     </row>
@@ -18027,7 +18023,7 @@
         <v>552</v>
       </c>
       <c r="E416" t="str">
-        <f>VLOOKUP(D416,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D416,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F416" t="s">
@@ -18036,9 +18032,9 @@
       <c r="G416" t="s">
         <v>1804</v>
       </c>
-      <c r="H416" t="str">
-        <f>VLOOKUP(D416,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H416" t="e">
+        <f>VLOOKUP(D416,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -18055,7 +18051,7 @@
         <v>1633</v>
       </c>
       <c r="E417" t="str">
-        <f>VLOOKUP(D417,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D417,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F417" t="s">
@@ -18065,7 +18061,7 @@
         <v>1804</v>
       </c>
       <c r="H417" t="str">
-        <f>VLOOKUP(D417,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D417,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -18083,7 +18079,7 @@
         <v>942</v>
       </c>
       <c r="E418" t="str">
-        <f>VLOOKUP(D418,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D418,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F418" t="s">
@@ -18093,7 +18089,7 @@
         <v>1804</v>
       </c>
       <c r="H418" t="str">
-        <f>VLOOKUP(D418,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D418,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -18111,7 +18107,7 @@
         <v>552</v>
       </c>
       <c r="E419" t="str">
-        <f>VLOOKUP(D419,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D419,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F419" t="s">
@@ -18120,9 +18116,9 @@
       <c r="G419" t="s">
         <v>1822</v>
       </c>
-      <c r="H419" t="str">
-        <f>VLOOKUP(D419,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H419" t="e">
+        <f>VLOOKUP(D419,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -18139,7 +18135,7 @@
         <v>1629</v>
       </c>
       <c r="E420" t="str">
-        <f>VLOOKUP(D420,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D420,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F420" t="s">
@@ -18149,7 +18145,7 @@
         <v>1804</v>
       </c>
       <c r="H420" t="str">
-        <f>VLOOKUP(D420,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D420,name_map!$A$4:$C$24,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
     </row>
@@ -18167,7 +18163,7 @@
         <v>1632</v>
       </c>
       <c r="E421" t="str">
-        <f>VLOOKUP(D421,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D421,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F421" t="s">
@@ -18177,7 +18173,7 @@
         <v>1804</v>
       </c>
       <c r="H421" t="str">
-        <f>VLOOKUP(D421,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D421,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -18195,7 +18191,7 @@
         <v>1727</v>
       </c>
       <c r="E422" t="str">
-        <f>VLOOKUP(D422,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D422,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F422" t="s">
@@ -18205,7 +18201,7 @@
         <v>1804</v>
       </c>
       <c r="H422" t="str">
-        <f>VLOOKUP(D422,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D422,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -18223,7 +18219,7 @@
         <v>1633</v>
       </c>
       <c r="E423" t="str">
-        <f>VLOOKUP(D423,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D423,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F423" t="s">
@@ -18233,7 +18229,7 @@
         <v>1804</v>
       </c>
       <c r="H423" t="str">
-        <f>VLOOKUP(D423,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D423,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -18251,7 +18247,7 @@
         <v>1187</v>
       </c>
       <c r="E424" t="str">
-        <f>VLOOKUP(D424,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D424,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F424" t="s">
@@ -18261,7 +18257,7 @@
         <v>1804</v>
       </c>
       <c r="H424" t="str">
-        <f>VLOOKUP(D424,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D424,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -18279,7 +18275,7 @@
         <v>1187</v>
       </c>
       <c r="E425" t="str">
-        <f>VLOOKUP(D425,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D425,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F425" t="s">
@@ -18289,7 +18285,7 @@
         <v>1804</v>
       </c>
       <c r="H425" t="str">
-        <f>VLOOKUP(D425,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D425,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -18307,7 +18303,7 @@
         <v>880</v>
       </c>
       <c r="E426" t="str">
-        <f>VLOOKUP(D426,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D426,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F426" t="s">
@@ -18317,7 +18313,7 @@
         <v>1804</v>
       </c>
       <c r="H426" t="str">
-        <f>VLOOKUP(D426,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D426,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -18335,7 +18331,7 @@
         <v>1727</v>
       </c>
       <c r="E427" t="str">
-        <f>VLOOKUP(D427,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D427,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F427" t="s">
@@ -18345,7 +18341,7 @@
         <v>1822</v>
       </c>
       <c r="H427" t="str">
-        <f>VLOOKUP(D427,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D427,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -18363,7 +18359,7 @@
         <v>1726</v>
       </c>
       <c r="E428" t="str">
-        <f>VLOOKUP(D428,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D428,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F428" t="s">
@@ -18373,7 +18369,7 @@
         <v>1804</v>
       </c>
       <c r="H428" t="str">
-        <f>VLOOKUP(D428,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D428,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -18391,7 +18387,7 @@
         <v>804</v>
       </c>
       <c r="E429" t="str">
-        <f>VLOOKUP(D429,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D429,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F429" t="s">
@@ -18400,9 +18396,9 @@
       <c r="G429" t="s">
         <v>1804</v>
       </c>
-      <c r="H429" t="str">
-        <f>VLOOKUP(D429,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H429" t="e">
+        <f>VLOOKUP(D429,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -18419,7 +18415,7 @@
         <v>1724</v>
       </c>
       <c r="E430" t="str">
-        <f>VLOOKUP(D430,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D430,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F430" t="s">
@@ -18429,7 +18425,7 @@
         <v>1822</v>
       </c>
       <c r="H430" t="str">
-        <f>VLOOKUP(D430,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D430,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -18447,7 +18443,7 @@
         <v>832</v>
       </c>
       <c r="E431" t="str">
-        <f>VLOOKUP(D431,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D431,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F431" t="s">
@@ -18457,7 +18453,7 @@
         <v>1804</v>
       </c>
       <c r="H431" t="str">
-        <f>VLOOKUP(D431,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D431,name_map!$A$4:$C$24,3,0)</f>
         <v>Y tế</v>
       </c>
     </row>
@@ -18475,7 +18471,7 @@
         <v>1423</v>
       </c>
       <c r="E432" t="str">
-        <f>VLOOKUP(D432,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D432,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F432" t="s">
@@ -18485,7 +18481,7 @@
         <v>1804</v>
       </c>
       <c r="H432" t="str">
-        <f>VLOOKUP(D432,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D432,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -18503,7 +18499,7 @@
         <v>1727</v>
       </c>
       <c r="E433" t="str">
-        <f>VLOOKUP(D433,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D433,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F433" t="s">
@@ -18513,7 +18509,7 @@
         <v>1804</v>
       </c>
       <c r="H433" t="str">
-        <f>VLOOKUP(D433,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D433,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -18531,7 +18527,7 @@
         <v>1633</v>
       </c>
       <c r="E434" t="str">
-        <f>VLOOKUP(D434,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D434,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F434" t="s">
@@ -18541,7 +18537,7 @@
         <v>1822</v>
       </c>
       <c r="H434" t="str">
-        <f>VLOOKUP(D434,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D434,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -18559,7 +18555,7 @@
         <v>599</v>
       </c>
       <c r="E435" t="str">
-        <f>VLOOKUP(D435,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D435,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F435" t="s">
@@ -18569,7 +18565,7 @@
         <v>1804</v>
       </c>
       <c r="H435" t="str">
-        <f>VLOOKUP(D435,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D435,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -18587,7 +18583,7 @@
         <v>1084</v>
       </c>
       <c r="E436" t="str">
-        <f>VLOOKUP(D436,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D436,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F436" t="s">
@@ -18597,7 +18593,7 @@
         <v>1822</v>
       </c>
       <c r="H436" t="str">
-        <f>VLOOKUP(D436,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D436,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -18615,7 +18611,7 @@
         <v>601</v>
       </c>
       <c r="E437" t="str">
-        <f>VLOOKUP(D437,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D437,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F437" t="s">
@@ -18625,7 +18621,7 @@
         <v>1804</v>
       </c>
       <c r="H437" t="str">
-        <f>VLOOKUP(D437,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D437,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -18643,7 +18639,7 @@
         <v>1187</v>
       </c>
       <c r="E438" t="str">
-        <f>VLOOKUP(D438,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D438,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F438" t="s">
@@ -18653,7 +18649,7 @@
         <v>1804</v>
       </c>
       <c r="H438" t="str">
-        <f>VLOOKUP(D438,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D438,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -18671,7 +18667,7 @@
         <v>880</v>
       </c>
       <c r="E439" t="str">
-        <f>VLOOKUP(D439,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D439,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F439" t="s">
@@ -18681,7 +18677,7 @@
         <v>1822</v>
       </c>
       <c r="H439" t="str">
-        <f>VLOOKUP(D439,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D439,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -18699,7 +18695,7 @@
         <v>804</v>
       </c>
       <c r="E440" t="str">
-        <f>VLOOKUP(D440,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D440,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F440" t="s">
@@ -18708,9 +18704,9 @@
       <c r="G440" t="s">
         <v>1804</v>
       </c>
-      <c r="H440" t="str">
-        <f>VLOOKUP(D440,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bán lẻ</v>
+      <c r="H440" t="e">
+        <f>VLOOKUP(D440,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -18727,7 +18723,7 @@
         <v>880</v>
       </c>
       <c r="E441" t="str">
-        <f>VLOOKUP(D441,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D441,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F441" t="s">
@@ -18737,7 +18733,7 @@
         <v>1804</v>
       </c>
       <c r="H441" t="str">
-        <f>VLOOKUP(D441,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D441,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -18755,7 +18751,7 @@
         <v>1726</v>
       </c>
       <c r="E442" t="str">
-        <f>VLOOKUP(D442,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D442,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F442" t="s">
@@ -18765,7 +18761,7 @@
         <v>1804</v>
       </c>
       <c r="H442" t="str">
-        <f>VLOOKUP(D442,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D442,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -18783,7 +18779,7 @@
         <v>1423</v>
       </c>
       <c r="E443" t="str">
-        <f>VLOOKUP(D443,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D443,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F443" t="s">
@@ -18793,7 +18789,7 @@
         <v>1804</v>
       </c>
       <c r="H443" t="str">
-        <f>VLOOKUP(D443,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D443,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -18811,7 +18807,7 @@
         <v>1423</v>
       </c>
       <c r="E444" t="str">
-        <f>VLOOKUP(D444,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D444,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F444" t="s">
@@ -18821,7 +18817,7 @@
         <v>1804</v>
       </c>
       <c r="H444" t="str">
-        <f>VLOOKUP(D444,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D444,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -18839,7 +18835,7 @@
         <v>1628</v>
       </c>
       <c r="E445" t="str">
-        <f>VLOOKUP(D445,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D445,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F445" t="s">
@@ -18849,7 +18845,7 @@
         <v>1804</v>
       </c>
       <c r="H445" t="str">
-        <f>VLOOKUP(D445,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D445,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -18867,7 +18863,7 @@
         <v>1629</v>
       </c>
       <c r="E446" t="str">
-        <f>VLOOKUP(D446,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D446,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F446" t="s">
@@ -18877,7 +18873,7 @@
         <v>1822</v>
       </c>
       <c r="H446" t="str">
-        <f>VLOOKUP(D446,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D446,name_map!$A$4:$C$24,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
     </row>
@@ -18895,7 +18891,7 @@
         <v>1633</v>
       </c>
       <c r="E447" t="str">
-        <f>VLOOKUP(D447,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D447,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F447" t="s">
@@ -18905,7 +18901,7 @@
         <v>1804</v>
       </c>
       <c r="H447" t="str">
-        <f>VLOOKUP(D447,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D447,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -18923,7 +18919,7 @@
         <v>1727</v>
       </c>
       <c r="E448" t="str">
-        <f>VLOOKUP(D448,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D448,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F448" t="s">
@@ -18933,7 +18929,7 @@
         <v>1822</v>
       </c>
       <c r="H448" t="str">
-        <f>VLOOKUP(D448,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D448,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -18951,7 +18947,7 @@
         <v>1628</v>
       </c>
       <c r="E449" t="str">
-        <f>VLOOKUP(D449,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D449,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F449" t="s">
@@ -18961,7 +18957,7 @@
         <v>1822</v>
       </c>
       <c r="H449" t="str">
-        <f>VLOOKUP(D449,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D449,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -18979,7 +18975,7 @@
         <v>1187</v>
       </c>
       <c r="E450" t="str">
-        <f>VLOOKUP(D450,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D450,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F450" t="s">
@@ -18989,7 +18985,7 @@
         <v>1804</v>
       </c>
       <c r="H450" t="str">
-        <f>VLOOKUP(D450,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D450,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19007,7 +19003,7 @@
         <v>1630</v>
       </c>
       <c r="E451" t="str">
-        <f>VLOOKUP(D451,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D451,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F451" t="s">
@@ -19017,7 +19013,7 @@
         <v>1804</v>
       </c>
       <c r="H451" t="str">
-        <f>VLOOKUP(D451,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D451,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -19035,7 +19031,7 @@
         <v>1187</v>
       </c>
       <c r="E452" t="str">
-        <f>VLOOKUP(D452,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D452,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F452" t="s">
@@ -19045,7 +19041,7 @@
         <v>1804</v>
       </c>
       <c r="H452" t="str">
-        <f>VLOOKUP(D452,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D452,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19063,7 +19059,7 @@
         <v>599</v>
       </c>
       <c r="E453" t="str">
-        <f>VLOOKUP(D453,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D453,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F453" t="s">
@@ -19073,7 +19069,7 @@
         <v>1804</v>
       </c>
       <c r="H453" t="str">
-        <f>VLOOKUP(D453,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D453,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -19091,7 +19087,7 @@
         <v>599</v>
       </c>
       <c r="E454" t="str">
-        <f>VLOOKUP(D454,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D454,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F454" t="s">
@@ -19101,7 +19097,7 @@
         <v>1804</v>
       </c>
       <c r="H454" t="str">
-        <f>VLOOKUP(D454,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D454,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -19119,7 +19115,7 @@
         <v>1187</v>
       </c>
       <c r="E455" t="str">
-        <f>VLOOKUP(D455,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D455,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F455" t="s">
@@ -19129,7 +19125,7 @@
         <v>1804</v>
       </c>
       <c r="H455" t="str">
-        <f>VLOOKUP(D455,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D455,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19147,7 +19143,7 @@
         <v>552</v>
       </c>
       <c r="E456" t="str">
-        <f>VLOOKUP(D456,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D456,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F456" t="s">
@@ -19156,9 +19152,9 @@
       <c r="G456" t="s">
         <v>1804</v>
       </c>
-      <c r="H456" t="str">
-        <f>VLOOKUP(D456,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H456" t="e">
+        <f>VLOOKUP(D456,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -19175,7 +19171,7 @@
         <v>1187</v>
       </c>
       <c r="E457" t="str">
-        <f>VLOOKUP(D457,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D457,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F457" t="s">
@@ -19185,7 +19181,7 @@
         <v>1822</v>
       </c>
       <c r="H457" t="str">
-        <f>VLOOKUP(D457,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D457,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19203,7 +19199,7 @@
         <v>1187</v>
       </c>
       <c r="E458" t="str">
-        <f>VLOOKUP(D458,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D458,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F458" t="s">
@@ -19213,7 +19209,7 @@
         <v>1804</v>
       </c>
       <c r="H458" t="str">
-        <f>VLOOKUP(D458,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D458,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19231,7 +19227,7 @@
         <v>599</v>
       </c>
       <c r="E459" t="str">
-        <f>VLOOKUP(D459,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D459,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F459" t="s">
@@ -19241,7 +19237,7 @@
         <v>1804</v>
       </c>
       <c r="H459" t="str">
-        <f>VLOOKUP(D459,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D459,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -19259,7 +19255,7 @@
         <v>1187</v>
       </c>
       <c r="E460" t="str">
-        <f>VLOOKUP(D460,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D460,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F460" t="s">
@@ -19269,7 +19265,7 @@
         <v>1804</v>
       </c>
       <c r="H460" t="str">
-        <f>VLOOKUP(D460,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D460,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19287,7 +19283,7 @@
         <v>1187</v>
       </c>
       <c r="E461" t="str">
-        <f>VLOOKUP(D461,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D461,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F461" t="s">
@@ -19297,7 +19293,7 @@
         <v>1804</v>
       </c>
       <c r="H461" t="str">
-        <f>VLOOKUP(D461,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D461,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19315,7 +19311,7 @@
         <v>1628</v>
       </c>
       <c r="E462" t="str">
-        <f>VLOOKUP(D462,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D462,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F462" t="s">
@@ -19325,7 +19321,7 @@
         <v>1822</v>
       </c>
       <c r="H462" t="str">
-        <f>VLOOKUP(D462,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D462,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -19343,7 +19339,7 @@
         <v>552</v>
       </c>
       <c r="E463" t="str">
-        <f>VLOOKUP(D463,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D463,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F463" t="s">
@@ -19352,9 +19348,9 @@
       <c r="G463" t="s">
         <v>1804</v>
       </c>
-      <c r="H463" t="str">
-        <f>VLOOKUP(D463,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H463" t="e">
+        <f>VLOOKUP(D463,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -19371,7 +19367,7 @@
         <v>1187</v>
       </c>
       <c r="E464" t="str">
-        <f>VLOOKUP(D464,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D464,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F464" t="s">
@@ -19381,7 +19377,7 @@
         <v>1804</v>
       </c>
       <c r="H464" t="str">
-        <f>VLOOKUP(D464,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D464,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19399,7 +19395,7 @@
         <v>1628</v>
       </c>
       <c r="E465" t="str">
-        <f>VLOOKUP(D465,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D465,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F465" t="s">
@@ -19409,7 +19405,7 @@
         <v>1822</v>
       </c>
       <c r="H465" t="str">
-        <f>VLOOKUP(D465,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D465,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -19427,7 +19423,7 @@
         <v>1187</v>
       </c>
       <c r="E466" t="str">
-        <f>VLOOKUP(D466,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D466,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F466" t="s">
@@ -19437,7 +19433,7 @@
         <v>1822</v>
       </c>
       <c r="H466" t="str">
-        <f>VLOOKUP(D466,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D466,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -19455,7 +19451,7 @@
         <v>1423</v>
       </c>
       <c r="E467" t="str">
-        <f>VLOOKUP(D467,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D467,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F467" t="s">
@@ -19465,7 +19461,7 @@
         <v>1804</v>
       </c>
       <c r="H467" t="str">
-        <f>VLOOKUP(D467,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D467,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -19483,7 +19479,7 @@
         <v>1628</v>
       </c>
       <c r="E468" t="str">
-        <f>VLOOKUP(D468,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D468,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F468" t="s">
@@ -19493,7 +19489,7 @@
         <v>1804</v>
       </c>
       <c r="H468" t="str">
-        <f>VLOOKUP(D468,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D468,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -19511,7 +19507,7 @@
         <v>1632</v>
       </c>
       <c r="E469" t="str">
-        <f>VLOOKUP(D469,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D469,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F469" t="s">
@@ -19521,7 +19517,7 @@
         <v>1804</v>
       </c>
       <c r="H469" t="str">
-        <f>VLOOKUP(D469,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D469,name_map!$A$4:$C$24,3,0)</f>
         <v>BĐS KCN</v>
       </c>
     </row>
@@ -19539,7 +19535,7 @@
         <v>524</v>
       </c>
       <c r="E470" t="str">
-        <f>VLOOKUP(D470,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D470,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F470" t="s">
@@ -19549,7 +19545,7 @@
         <v>1804</v>
       </c>
       <c r="H470" t="str">
-        <f>VLOOKUP(D470,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D470,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghệ</v>
       </c>
     </row>
@@ -19567,7 +19563,7 @@
         <v>1727</v>
       </c>
       <c r="E471" t="str">
-        <f>VLOOKUP(D471,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D471,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F471" t="s">
@@ -19577,7 +19573,7 @@
         <v>1822</v>
       </c>
       <c r="H471" t="str">
-        <f>VLOOKUP(D471,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D471,name_map!$A$4:$C$24,3,0)</f>
         <v>Thép</v>
       </c>
     </row>
@@ -19595,7 +19591,7 @@
         <v>1724</v>
       </c>
       <c r="E472" t="str">
-        <f>VLOOKUP(D472,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D472,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F472" t="s">
@@ -19605,7 +19601,7 @@
         <v>1822</v>
       </c>
       <c r="H472" t="str">
-        <f>VLOOKUP(D472,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D472,name_map!$A$4:$C$24,3,0)</f>
         <v>Dệt may</v>
       </c>
     </row>
@@ -19623,7 +19619,7 @@
         <v>1423</v>
       </c>
       <c r="E473" t="str">
-        <f>VLOOKUP(D473,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D473,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F473" t="s">
@@ -19633,7 +19629,7 @@
         <v>1804</v>
       </c>
       <c r="H473" t="str">
-        <f>VLOOKUP(D473,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D473,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -19651,7 +19647,7 @@
         <v>1631</v>
       </c>
       <c r="E474" t="str">
-        <f>VLOOKUP(D474,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D474,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F474" t="s">
@@ -19661,7 +19657,7 @@
         <v>1804</v>
       </c>
       <c r="H474" t="str">
-        <f>VLOOKUP(D474,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D474,name_map!$A$4:$C$24,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
     </row>
@@ -19679,7 +19675,7 @@
         <v>942</v>
       </c>
       <c r="E475" t="str">
-        <f>VLOOKUP(D475,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D475,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F475" t="s">
@@ -19689,7 +19685,7 @@
         <v>1804</v>
       </c>
       <c r="H475" t="str">
-        <f>VLOOKUP(D475,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D475,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -19707,7 +19703,7 @@
         <v>552</v>
       </c>
       <c r="E476" t="str">
-        <f>VLOOKUP(D476,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D476,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F476" t="s">
@@ -19716,9 +19712,9 @@
       <c r="G476" t="s">
         <v>1822</v>
       </c>
-      <c r="H476" t="str">
-        <f>VLOOKUP(D476,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H476" t="e">
+        <f>VLOOKUP(D476,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -19735,7 +19731,7 @@
         <v>552</v>
       </c>
       <c r="E477" t="str">
-        <f>VLOOKUP(D477,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D477,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F477" t="s">
@@ -19744,9 +19740,9 @@
       <c r="G477" t="s">
         <v>1804</v>
       </c>
-      <c r="H477" t="str">
-        <f>VLOOKUP(D477,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H477" t="e">
+        <f>VLOOKUP(D477,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -19763,7 +19759,7 @@
         <v>599</v>
       </c>
       <c r="E478" t="str">
-        <f>VLOOKUP(D478,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D478,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F478" t="s">
@@ -19773,7 +19769,7 @@
         <v>1804</v>
       </c>
       <c r="H478" t="str">
-        <f>VLOOKUP(D478,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D478,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -19791,7 +19787,7 @@
         <v>552</v>
       </c>
       <c r="E479" t="str">
-        <f>VLOOKUP(D479,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D479,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F479" t="s">
@@ -19800,9 +19796,9 @@
       <c r="G479" t="s">
         <v>1804</v>
       </c>
-      <c r="H479" t="str">
-        <f>VLOOKUP(D479,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H479" t="e">
+        <f>VLOOKUP(D479,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -19819,7 +19815,7 @@
         <v>1633</v>
       </c>
       <c r="E480" t="str">
-        <f>VLOOKUP(D480,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D480,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F480" t="s">
@@ -19829,7 +19825,7 @@
         <v>1804</v>
       </c>
       <c r="H480" t="str">
-        <f>VLOOKUP(D480,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D480,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -19847,7 +19843,7 @@
         <v>1628</v>
       </c>
       <c r="E481" t="str">
-        <f>VLOOKUP(D481,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D481,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F481" t="s">
@@ -19857,7 +19853,7 @@
         <v>1822</v>
       </c>
       <c r="H481" t="str">
-        <f>VLOOKUP(D481,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D481,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -19875,7 +19871,7 @@
         <v>1726</v>
       </c>
       <c r="E482" t="str">
-        <f>VLOOKUP(D482,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D482,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F482" t="s">
@@ -19885,7 +19881,7 @@
         <v>1804</v>
       </c>
       <c r="H482" t="str">
-        <f>VLOOKUP(D482,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D482,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -19903,7 +19899,7 @@
         <v>1628</v>
       </c>
       <c r="E483" t="str">
-        <f>VLOOKUP(D483,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D483,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F483" t="s">
@@ -19913,7 +19909,7 @@
         <v>1822</v>
       </c>
       <c r="H483" t="str">
-        <f>VLOOKUP(D483,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D483,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -19931,7 +19927,7 @@
         <v>1731</v>
       </c>
       <c r="E484" t="str">
-        <f>VLOOKUP(D484,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D484,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F484" t="s">
@@ -19941,7 +19937,7 @@
         <v>1804</v>
       </c>
       <c r="H484" t="str">
-        <f>VLOOKUP(D484,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D484,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -19959,7 +19955,7 @@
         <v>880</v>
       </c>
       <c r="E485" t="str">
-        <f>VLOOKUP(D485,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D485,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F485" t="s">
@@ -19969,7 +19965,7 @@
         <v>1804</v>
       </c>
       <c r="H485" t="str">
-        <f>VLOOKUP(D485,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D485,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -19987,7 +19983,7 @@
         <v>1630</v>
       </c>
       <c r="E486" t="str">
-        <f>VLOOKUP(D486,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D486,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F486" t="s">
@@ -19997,7 +19993,7 @@
         <v>1804</v>
       </c>
       <c r="H486" t="str">
-        <f>VLOOKUP(D486,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D486,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -20015,7 +20011,7 @@
         <v>942</v>
       </c>
       <c r="E487" t="str">
-        <f>VLOOKUP(D487,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D487,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F487" t="s">
@@ -20025,7 +20021,7 @@
         <v>1804</v>
       </c>
       <c r="H487" t="str">
-        <f>VLOOKUP(D487,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D487,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -20043,7 +20039,7 @@
         <v>1187</v>
       </c>
       <c r="E488" t="str">
-        <f>VLOOKUP(D488,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D488,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F488" t="s">
@@ -20053,7 +20049,7 @@
         <v>1804</v>
       </c>
       <c r="H488" t="str">
-        <f>VLOOKUP(D488,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D488,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -20071,7 +20067,7 @@
         <v>1423</v>
       </c>
       <c r="E489" t="str">
-        <f>VLOOKUP(D489,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D489,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F489" t="s">
@@ -20081,7 +20077,7 @@
         <v>1804</v>
       </c>
       <c r="H489" t="str">
-        <f>VLOOKUP(D489,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D489,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -20099,7 +20095,7 @@
         <v>880</v>
       </c>
       <c r="E490" t="str">
-        <f>VLOOKUP(D490,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D490,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F490" t="s">
@@ -20109,7 +20105,7 @@
         <v>1804</v>
       </c>
       <c r="H490" t="str">
-        <f>VLOOKUP(D490,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D490,name_map!$A$4:$C$24,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
     </row>
@@ -20127,7 +20123,7 @@
         <v>1628</v>
       </c>
       <c r="E491" t="str">
-        <f>VLOOKUP(D491,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D491,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F491" t="s">
@@ -20137,7 +20133,7 @@
         <v>1822</v>
       </c>
       <c r="H491" t="str">
-        <f>VLOOKUP(D491,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D491,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -20155,7 +20151,7 @@
         <v>1187</v>
       </c>
       <c r="E492" t="str">
-        <f>VLOOKUP(D492,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D492,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F492" t="s">
@@ -20165,7 +20161,7 @@
         <v>1804</v>
       </c>
       <c r="H492" t="str">
-        <f>VLOOKUP(D492,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D492,name_map!$A$4:$C$24,3,0)</f>
         <v>Xây dựng</v>
       </c>
     </row>
@@ -20183,7 +20179,7 @@
         <v>1731</v>
       </c>
       <c r="E493" t="str">
-        <f>VLOOKUP(D493,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D493,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F493" t="s">
@@ -20193,7 +20189,7 @@
         <v>1804</v>
       </c>
       <c r="H493" t="str">
-        <f>VLOOKUP(D493,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D493,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -20211,7 +20207,7 @@
         <v>1631</v>
       </c>
       <c r="E494" t="str">
-        <f>VLOOKUP(D494,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D494,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F494" t="s">
@@ -20221,7 +20217,7 @@
         <v>1822</v>
       </c>
       <c r="H494" t="str">
-        <f>VLOOKUP(D494,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D494,name_map!$A$4:$C$24,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
     </row>
@@ -20239,7 +20235,7 @@
         <v>942</v>
       </c>
       <c r="E495" t="str">
-        <f>VLOOKUP(D495,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D495,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F495" t="s">
@@ -20249,7 +20245,7 @@
         <v>1804</v>
       </c>
       <c r="H495" t="str">
-        <f>VLOOKUP(D495,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D495,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -20267,7 +20263,7 @@
         <v>1084</v>
       </c>
       <c r="E496" t="str">
-        <f>VLOOKUP(D496,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D496,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F496" t="s">
@@ -20277,7 +20273,7 @@
         <v>1804</v>
       </c>
       <c r="H496" t="str">
-        <f>VLOOKUP(D496,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D496,name_map!$A$4:$C$24,3,0)</f>
         <v>Hoá chất</v>
       </c>
     </row>
@@ -20295,7 +20291,7 @@
         <v>594</v>
       </c>
       <c r="E497" t="str">
-        <f>VLOOKUP(D497,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D497,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F497" t="s">
@@ -20305,7 +20301,7 @@
         <v>1804</v>
       </c>
       <c r="H497" t="str">
-        <f>VLOOKUP(D497,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D497,name_map!$A$4:$C$24,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
     </row>
@@ -20323,7 +20319,7 @@
         <v>1726</v>
       </c>
       <c r="E498" t="str">
-        <f>VLOOKUP(D498,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D498,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F498" t="s">
@@ -20333,7 +20329,7 @@
         <v>1804</v>
       </c>
       <c r="H498" t="str">
-        <f>VLOOKUP(D498,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D498,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -20351,7 +20347,7 @@
         <v>942</v>
       </c>
       <c r="E499" t="str">
-        <f>VLOOKUP(D499,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D499,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F499" t="s">
@@ -20361,7 +20357,7 @@
         <v>1804</v>
       </c>
       <c r="H499" t="str">
-        <f>VLOOKUP(D499,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D499,name_map!$A$4:$C$24,3,0)</f>
         <v>Thực phẩm</v>
       </c>
     </row>
@@ -20379,7 +20375,7 @@
         <v>1726</v>
       </c>
       <c r="E500" t="str">
-        <f>VLOOKUP(D500,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D500,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F500" t="s">
@@ -20389,7 +20385,7 @@
         <v>1822</v>
       </c>
       <c r="H500" t="str">
-        <f>VLOOKUP(D500,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D500,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -20407,7 +20403,7 @@
         <v>599</v>
       </c>
       <c r="E501" t="str">
-        <f>VLOOKUP(D501,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D501,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F501" t="s">
@@ -20417,7 +20413,7 @@
         <v>1804</v>
       </c>
       <c r="H501" t="str">
-        <f>VLOOKUP(D501,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D501,name_map!$A$4:$C$24,3,0)</f>
         <v>Ngân hàng</v>
       </c>
     </row>
@@ -20435,7 +20431,7 @@
         <v>1633</v>
       </c>
       <c r="E502" t="str">
-        <f>VLOOKUP(D502,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D502,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F502" t="s">
@@ -20445,7 +20441,7 @@
         <v>1822</v>
       </c>
       <c r="H502" t="str">
-        <f>VLOOKUP(D502,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D502,name_map!$A$4:$C$24,3,0)</f>
         <v>Khoáng sản</v>
       </c>
     </row>
@@ -20463,7 +20459,7 @@
         <v>552</v>
       </c>
       <c r="E503" t="str">
-        <f>VLOOKUP(D503,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D503,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F503" t="s">
@@ -20472,9 +20468,9 @@
       <c r="G503" t="s">
         <v>1804</v>
       </c>
-      <c r="H503" t="str">
-        <f>VLOOKUP(D503,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H503" t="e">
+        <f>VLOOKUP(D503,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -20491,7 +20487,7 @@
         <v>552</v>
       </c>
       <c r="E504" t="str">
-        <f>VLOOKUP(D504,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D504,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F504" t="s">
@@ -20500,9 +20496,9 @@
       <c r="G504" t="s">
         <v>1804</v>
       </c>
-      <c r="H504" t="str">
-        <f>VLOOKUP(D504,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H504" t="e">
+        <f>VLOOKUP(D504,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
@@ -20519,7 +20515,7 @@
         <v>552</v>
       </c>
       <c r="E505" t="str">
-        <f>VLOOKUP(D505,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D505,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F505" t="s">
@@ -20528,9 +20524,9 @@
       <c r="G505" t="s">
         <v>1804</v>
       </c>
-      <c r="H505" t="str">
-        <f>VLOOKUP(D505,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H505" t="e">
+        <f>VLOOKUP(D505,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
@@ -20547,7 +20543,7 @@
         <v>552</v>
       </c>
       <c r="E506" t="str">
-        <f>VLOOKUP(D506,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D506,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F506" t="s">
@@ -20556,9 +20552,9 @@
       <c r="G506" t="s">
         <v>1804</v>
       </c>
-      <c r="H506" t="str">
-        <f>VLOOKUP(D506,name_map!$A$2:$C$24,3,0)</f>
-        <v>Bất động sản</v>
+      <c r="H506" t="e">
+        <f>VLOOKUP(D506,name_map!$A$4:$C$24,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -20575,7 +20571,7 @@
         <v>1726</v>
       </c>
       <c r="E507" t="str">
-        <f>VLOOKUP(D507,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D507,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F507" t="s">
@@ -20585,7 +20581,7 @@
         <v>1804</v>
       </c>
       <c r="H507" t="str">
-        <f>VLOOKUP(D507,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D507,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -20603,7 +20599,7 @@
         <v>601</v>
       </c>
       <c r="E508" t="str">
-        <f>VLOOKUP(D508,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D508,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F508" t="s">
@@ -20613,7 +20609,7 @@
         <v>1804</v>
       </c>
       <c r="H508" t="str">
-        <f>VLOOKUP(D508,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D508,name_map!$A$4:$C$24,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
     </row>
@@ -20631,7 +20627,7 @@
         <v>1731</v>
       </c>
       <c r="E509" t="str">
-        <f>VLOOKUP(D509,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D509,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F509" t="s">
@@ -20641,7 +20637,7 @@
         <v>1804</v>
       </c>
       <c r="H509" t="str">
-        <f>VLOOKUP(D509,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D509,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -20659,7 +20655,7 @@
         <v>1726</v>
       </c>
       <c r="E510" t="str">
-        <f>VLOOKUP(D510,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D510,name_map!$A$2:$D$24,2,0)</f>
         <v>C</v>
       </c>
       <c r="F510" t="s">
@@ -20669,7 +20665,7 @@
         <v>1804</v>
       </c>
       <c r="H510" t="str">
-        <f>VLOOKUP(D510,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D510,name_map!$A$4:$C$24,3,0)</f>
         <v>Vận tải</v>
       </c>
     </row>
@@ -20687,7 +20683,7 @@
         <v>1423</v>
       </c>
       <c r="E511" t="str">
-        <f>VLOOKUP(D511,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D511,name_map!$A$2:$D$24,2,0)</f>
         <v>B</v>
       </c>
       <c r="F511" t="s">
@@ -20697,7 +20693,7 @@
         <v>1804</v>
       </c>
       <c r="H511" t="str">
-        <f>VLOOKUP(D511,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D511,name_map!$A$4:$C$24,3,0)</f>
         <v>Công nghiệp</v>
       </c>
     </row>
@@ -20715,7 +20711,7 @@
         <v>1630</v>
       </c>
       <c r="E512" t="str">
-        <f>VLOOKUP(D512,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D512,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F512" t="s">
@@ -20725,7 +20721,7 @@
         <v>1804</v>
       </c>
       <c r="H512" t="str">
-        <f>VLOOKUP(D512,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D512,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -20743,7 +20739,7 @@
         <v>1628</v>
       </c>
       <c r="E513" t="str">
-        <f>VLOOKUP(D513,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D513,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F513" t="s">
@@ -20753,7 +20749,7 @@
         <v>1804</v>
       </c>
       <c r="H513" t="str">
-        <f>VLOOKUP(D513,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D513,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -20771,7 +20767,7 @@
         <v>1628</v>
       </c>
       <c r="E514" t="str">
-        <f>VLOOKUP(D514,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D514,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F514" t="s">
@@ -20781,7 +20777,7 @@
         <v>1822</v>
       </c>
       <c r="H514" t="str">
-        <f>VLOOKUP(D514,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D514,name_map!$A$4:$C$24,3,0)</f>
         <v>Chứng khoán</v>
       </c>
     </row>
@@ -20799,7 +20795,7 @@
         <v>1630</v>
       </c>
       <c r="E515" t="str">
-        <f>VLOOKUP(D515,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D515,name_map!$A$2:$D$24,2,0)</f>
         <v>A</v>
       </c>
       <c r="F515" t="s">
@@ -20809,7 +20805,7 @@
         <v>1822</v>
       </c>
       <c r="H515" t="str">
-        <f>VLOOKUP(D515,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D515,name_map!$A$4:$C$24,3,0)</f>
         <v>Vật liệu xây dựng</v>
       </c>
     </row>
@@ -20827,7 +20823,7 @@
         <v>1731</v>
       </c>
       <c r="E516" t="str">
-        <f>VLOOKUP(D516,name_map!$A$2:$B$24,2,0)</f>
+        <f>VLOOKUP(D516,name_map!$A$2:$D$24,2,0)</f>
         <v>D</v>
       </c>
       <c r="F516" t="s">
@@ -20837,7 +20833,7 @@
         <v>1804</v>
       </c>
       <c r="H516" t="str">
-        <f>VLOOKUP(D516,name_map!$A$2:$C$24,3,0)</f>
+        <f>VLOOKUP(D516,name_map!$A$4:$C$24,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
     </row>
@@ -21079,8 +21075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BBB8EC-206D-4F61-95EB-11956B25152E}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21106,13 +21102,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1628</v>
+        <v>804</v>
       </c>
       <c r="B2" t="s">
         <v>1751</v>
       </c>
       <c r="C2" t="s">
-        <v>1790</v>
+        <v>1757</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -21134,13 +21130,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>804</v>
+        <v>1628</v>
       </c>
       <c r="B4" t="s">
         <v>1751</v>
       </c>
       <c r="C4" t="s">
-        <v>1757</v>
+        <v>1790</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -21176,13 +21172,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1187</v>
+        <v>1630</v>
       </c>
       <c r="B7" t="s">
         <v>1751</v>
       </c>
       <c r="C7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -21190,13 +21186,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1630</v>
+        <v>1187</v>
       </c>
       <c r="B8" t="s">
         <v>1751</v>
       </c>
       <c r="C8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -21204,13 +21200,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1724</v>
+        <v>1423</v>
       </c>
       <c r="B9" t="s">
         <v>1753</v>
       </c>
       <c r="C9" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -21232,13 +21228,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1423</v>
+        <v>1724</v>
       </c>
       <c r="B11" t="s">
         <v>1753</v>
       </c>
       <c r="C11" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -21246,13 +21242,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1631</v>
+        <v>1084</v>
       </c>
       <c r="B12" t="s">
         <v>1753</v>
       </c>
       <c r="C12" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -21274,13 +21270,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1084</v>
+        <v>1631</v>
       </c>
       <c r="B14" t="s">
         <v>1753</v>
       </c>
       <c r="C14" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -21288,13 +21284,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>524</v>
+        <v>1632</v>
       </c>
       <c r="B15" t="s">
         <v>1754</v>
       </c>
       <c r="C15" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -21302,13 +21298,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1726</v>
+        <v>524</v>
       </c>
       <c r="B16" t="s">
         <v>1754</v>
       </c>
       <c r="C16" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -21316,13 +21312,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>942</v>
+        <v>880</v>
       </c>
       <c r="B17" t="s">
         <v>1754</v>
       </c>
       <c r="C17" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -21330,13 +21326,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>880</v>
+        <v>599</v>
       </c>
       <c r="B18" t="s">
         <v>1754</v>
       </c>
       <c r="C18" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -21344,13 +21340,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1632</v>
+        <v>942</v>
       </c>
       <c r="B19" t="s">
         <v>1754</v>
       </c>
       <c r="C19" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -21358,13 +21354,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>599</v>
+        <v>1726</v>
       </c>
       <c r="B20" t="s">
         <v>1754</v>
       </c>
       <c r="C20" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="D20">
         <v>6</v>
